--- a/ipynb/4 более операции в день.xlsx
+++ b/ipynb/4 более операции в день.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="174">
   <si>
     <t>ID Клиента</t>
   </si>
@@ -40,487 +40,499 @@
     <t>Елена Кичигина</t>
   </si>
   <si>
+    <t>Татьяна Трофимова</t>
+  </si>
+  <si>
     <t>Di Fi</t>
   </si>
   <si>
-    <t>Татьяна Трофимова</t>
-  </si>
-  <si>
     <t>Алена Артемьева</t>
   </si>
   <si>
+    <t>Анита Durova</t>
+  </si>
+  <si>
     <t>Коробова Татьяна</t>
   </si>
   <si>
-    <t>Анита Durova</t>
+    <t>Анастасия Горохова</t>
   </si>
   <si>
     <t>Надежда Алексеева</t>
   </si>
   <si>
+    <t>Вероника Герусова</t>
+  </si>
+  <si>
     <t>Волен Де Морт</t>
   </si>
   <si>
-    <t>Вероника Герусова</t>
-  </si>
-  <si>
-    <t>Анастасия Горохова</t>
-  </si>
-  <si>
     <t>Анна Охлопкова</t>
   </si>
   <si>
+    <t>Ариадна Посельская</t>
+  </si>
+  <si>
     <t>Ирина С</t>
   </si>
   <si>
-    <t>Ариадна Посельская</t>
-  </si>
-  <si>
     <t>Эльвира Шахова</t>
   </si>
   <si>
     <t>Александра Петрова</t>
   </si>
   <si>
+    <t>+79246605413</t>
+  </si>
+  <si>
+    <t>+79949943114</t>
+  </si>
+  <si>
+    <t>Соёлма Молонова</t>
+  </si>
+  <si>
     <t>Елена Баишева</t>
   </si>
   <si>
-    <t>Соёлма Молонова</t>
-  </si>
-  <si>
-    <t>+79949943114</t>
-  </si>
-  <si>
-    <t>+79246605413</t>
-  </si>
-  <si>
     <t>+79244689459</t>
   </si>
   <si>
+    <t>Наталья Ефремова</t>
+  </si>
+  <si>
     <t>Яна Петрова</t>
   </si>
   <si>
+    <t>Галина Вензель</t>
+  </si>
+  <si>
     <t>Къе Ъуъ</t>
   </si>
   <si>
     <t>Андриан Кривошапкин</t>
   </si>
   <si>
-    <t>Наталья Ефремова</t>
+    <t>Мыйманбек султанов</t>
+  </si>
+  <si>
+    <t>Николай Кочнев</t>
+  </si>
+  <si>
+    <t>Дьулус Кынтояров</t>
+  </si>
+  <si>
+    <t>Александр Слободяник</t>
+  </si>
+  <si>
+    <t>Gain Do</t>
+  </si>
+  <si>
+    <t>Дмитрий Потапов</t>
+  </si>
+  <si>
+    <t>Ринат Аркрайт</t>
+  </si>
+  <si>
+    <t>Вера Никулина</t>
+  </si>
+  <si>
+    <t>Павел Войтович</t>
+  </si>
+  <si>
+    <t>Анжелика Малиновская</t>
+  </si>
+  <si>
+    <t>+79243698563</t>
+  </si>
+  <si>
+    <t>Егор Тастыгин</t>
+  </si>
+  <si>
+    <t>Ляля Стручкова</t>
+  </si>
+  <si>
+    <t>Марина Матвеева</t>
+  </si>
+  <si>
+    <t>Марина Колышкина</t>
+  </si>
+  <si>
+    <t>Ирина Сергеева</t>
+  </si>
+  <si>
+    <t>Надежда Шелковникова</t>
+  </si>
+  <si>
+    <t>Саина Протопопова</t>
+  </si>
+  <si>
+    <t>Нелля Кузьмина</t>
+  </si>
+  <si>
+    <t>Валентина Винокурова</t>
+  </si>
+  <si>
+    <t>Настя Васильева</t>
+  </si>
+  <si>
+    <t>Людмила Николаева</t>
+  </si>
+  <si>
+    <t>Sardaana Evgrafova</t>
+  </si>
+  <si>
+    <t>АННА КОМАРОВА</t>
   </si>
   <si>
     <t>Вероника Кузьмина</t>
   </si>
   <si>
-    <t>Егор Тастыгин</t>
-  </si>
-  <si>
-    <t>+79243698563</t>
-  </si>
-  <si>
-    <t>Людмила Николаева</t>
-  </si>
-  <si>
-    <t>Ирина Сергеева</t>
-  </si>
-  <si>
-    <t>Ляля Стручкова</t>
+    <t>Ирина Алексеева</t>
+  </si>
+  <si>
+    <t>Анна Абрамова</t>
   </si>
   <si>
     <t>Кубанычбек Жарманбет</t>
   </si>
   <si>
-    <t>Александр Слободяник</t>
-  </si>
-  <si>
-    <t>Ринат Аркрайт</t>
-  </si>
-  <si>
-    <t>Gain Do</t>
-  </si>
-  <si>
-    <t>Саина Протопопова</t>
-  </si>
-  <si>
-    <t>Анжелика Малиновская</t>
-  </si>
-  <si>
-    <t>Вера Никулина</t>
-  </si>
-  <si>
-    <t>Дмитрий Потапов</t>
-  </si>
-  <si>
-    <t>Мыйманбек султанов</t>
-  </si>
-  <si>
-    <t>Дьулус Кынтояров</t>
-  </si>
-  <si>
-    <t>Надежда Шелковникова</t>
-  </si>
-  <si>
-    <t>Нелля Кузьмина</t>
-  </si>
-  <si>
-    <t>Павел Войтович</t>
-  </si>
-  <si>
-    <t>Sardaana Evgrafova</t>
-  </si>
-  <si>
-    <t>Валентина Винокурова</t>
-  </si>
-  <si>
-    <t>АННА КОМАРОВА</t>
-  </si>
-  <si>
-    <t>Анна Абрамова</t>
-  </si>
-  <si>
-    <t>Настя Васильева</t>
-  </si>
-  <si>
-    <t>Ирина Алексеева</t>
+    <t>Мира Афанасьева</t>
+  </si>
+  <si>
+    <t>Юля Соболева</t>
+  </si>
+  <si>
+    <t>Айталина Алексеева</t>
+  </si>
+  <si>
+    <t>Светлана Асекритова</t>
+  </si>
+  <si>
+    <t>+79961202149</t>
+  </si>
+  <si>
+    <t>Рожин Илья</t>
+  </si>
+  <si>
+    <t>Марина Синцова</t>
+  </si>
+  <si>
+    <t>Татьяна Гусакова</t>
+  </si>
+  <si>
+    <t>Никанор Атласов</t>
+  </si>
+  <si>
+    <t>Анастасия Степанова</t>
+  </si>
+  <si>
+    <t>Ирина Стручкова</t>
+  </si>
+  <si>
+    <t>Акулина Бегунова</t>
+  </si>
+  <si>
+    <t>Василика Тихонова</t>
+  </si>
+  <si>
+    <t>эвелина бахилина</t>
+  </si>
+  <si>
+    <t>Аурика Иванова</t>
+  </si>
+  <si>
+    <t>Алина Хомякова</t>
+  </si>
+  <si>
+    <t>Эльвира Олесова</t>
+  </si>
+  <si>
+    <t>Наталия Васильева</t>
+  </si>
+  <si>
+    <t>Bogdan Sokolov</t>
+  </si>
+  <si>
+    <t>Евгений Григорьев</t>
+  </si>
+  <si>
+    <t>Сайыына Слепцова</t>
+  </si>
+  <si>
+    <t>Нурбек Исабаев</t>
+  </si>
+  <si>
+    <t>Дана Галинская</t>
+  </si>
+  <si>
+    <t>Anna Popova</t>
+  </si>
+  <si>
+    <t>нюргуяна романова</t>
+  </si>
+  <si>
+    <t>Алина Никифорова</t>
+  </si>
+  <si>
+    <t>Анатолий Кириллин</t>
+  </si>
+  <si>
+    <t>Мадина Мусабекова</t>
+  </si>
+  <si>
+    <t>Алгыстаана Оконешникова</t>
+  </si>
+  <si>
+    <t>Дима Димыч</t>
+  </si>
+  <si>
+    <t>Never More</t>
+  </si>
+  <si>
+    <t>+79679145272</t>
+  </si>
+  <si>
+    <t>Евдокия Борисова</t>
+  </si>
+  <si>
+    <t>Andrej Razin</t>
+  </si>
+  <si>
+    <t>Клара Омукчанова</t>
+  </si>
+  <si>
+    <t>Артур Оконешников</t>
   </si>
   <si>
     <t>Анна Кирилова</t>
   </si>
   <si>
+    <t>Михаил Платонов</t>
+  </si>
+  <si>
     <t>Алёна Слепцова</t>
   </si>
   <si>
+    <t>Лина Красницкая</t>
+  </si>
+  <si>
+    <t>Ян Березкин</t>
+  </si>
+  <si>
+    <t>Валерия Назарова</t>
+  </si>
+  <si>
+    <t>Любовь Андреева</t>
+  </si>
+  <si>
+    <t>Дьулустаан Павлов</t>
+  </si>
+  <si>
+    <t>Степан Куприянов</t>
+  </si>
+  <si>
+    <t>+79142660227</t>
+  </si>
+  <si>
+    <t>Feya Ром-на</t>
+  </si>
+  <si>
+    <t>Анастасия Иванова</t>
+  </si>
+  <si>
+    <t>Нина Барашкова</t>
+  </si>
+  <si>
+    <t>+79969144642</t>
+  </si>
+  <si>
+    <t>Сахаайа Никанорова</t>
+  </si>
+  <si>
+    <t>+79244617989</t>
+  </si>
+  <si>
+    <t>Эльза Омарова</t>
+  </si>
+  <si>
     <t>Илья Вакульский</t>
   </si>
   <si>
     <t>Андрей Бирюков</t>
   </si>
   <si>
-    <t>Михаил Платонов</t>
-  </si>
-  <si>
-    <t>+79679145272</t>
-  </si>
-  <si>
-    <t>Дима Димыч</t>
-  </si>
-  <si>
-    <t>Нурбек Исабаев</t>
-  </si>
-  <si>
-    <t>Алгыстаана Оконешникова</t>
-  </si>
-  <si>
-    <t>Василика Тихонова</t>
-  </si>
-  <si>
-    <t>эвелина бахилина</t>
-  </si>
-  <si>
-    <t>Мадина Мусабекова</t>
-  </si>
-  <si>
-    <t>Никанор Атласов</t>
-  </si>
-  <si>
-    <t>Акулина Бегунова</t>
-  </si>
-  <si>
-    <t>Айталина Алексеева</t>
-  </si>
-  <si>
-    <t>Наталия Васильева</t>
-  </si>
-  <si>
-    <t>Эльза Омарова</t>
+    <t>Ариана Николаева</t>
+  </si>
+  <si>
+    <t>Жика Маликова</t>
+  </si>
+  <si>
+    <t>Андрей Михайлов</t>
+  </si>
+  <si>
+    <t>Валерия Б</t>
+  </si>
+  <si>
+    <t>Марина Артахинова</t>
+  </si>
+  <si>
+    <t>Афанасий Петров</t>
+  </si>
+  <si>
+    <t>Софа Бурлака</t>
+  </si>
+  <si>
+    <t>Миша Софронов</t>
+  </si>
+  <si>
+    <t>Венера Степанова</t>
+  </si>
+  <si>
+    <t>+79246607711</t>
+  </si>
+  <si>
+    <t>Екатерина Потапова</t>
+  </si>
+  <si>
+    <t>Кюнняй Шараборина</t>
+  </si>
+  <si>
+    <t>Николай Сивцев</t>
+  </si>
+  <si>
+    <t>Рудольф Андреев</t>
+  </si>
+  <si>
+    <t>Екатерина Михайлова</t>
+  </si>
+  <si>
+    <t>Sardaana Vinokurova</t>
+  </si>
+  <si>
+    <t>Жора Колпаков</t>
+  </si>
+  <si>
+    <t>Айпери Ащерпай</t>
+  </si>
+  <si>
+    <t>Анна Хвастунова</t>
+  </si>
+  <si>
+    <t>Роман Миридонов</t>
+  </si>
+  <si>
+    <t>Наталья Вершинина</t>
+  </si>
+  <si>
+    <t>Алексей Степанов</t>
+  </si>
+  <si>
+    <t>Айыылаана Петрова</t>
+  </si>
+  <si>
+    <t>Саргылаан Тарабукин</t>
+  </si>
+  <si>
+    <t>Лана Захарова</t>
+  </si>
+  <si>
+    <t>Саина Сыроватская</t>
+  </si>
+  <si>
+    <t>Злата Береговая</t>
+  </si>
+  <si>
+    <t>Райан Гослинг</t>
+  </si>
+  <si>
+    <t>Эрэл Никитин</t>
+  </si>
+  <si>
+    <t>Кристина Акимова</t>
+  </si>
+  <si>
+    <t>Валерий Бурцев</t>
+  </si>
+  <si>
+    <t>Семён Лебедевев</t>
+  </si>
+  <si>
+    <t>Екатерина Ч</t>
+  </si>
+  <si>
+    <t>Аина Акакиева</t>
+  </si>
+  <si>
+    <t>Наталья Афанасьева</t>
+  </si>
+  <si>
+    <t>Вилена Малышева</t>
+  </si>
+  <si>
+    <t>Николай Андросов</t>
+  </si>
+  <si>
+    <t>Юлия Масюк</t>
+  </si>
+  <si>
+    <t>Сергей Токушев</t>
+  </si>
+  <si>
+    <t>Мырза Христофоров</t>
+  </si>
+  <si>
+    <t>Бэлла Петрова</t>
+  </si>
+  <si>
+    <t>Анастасия Легостаева</t>
   </si>
   <si>
     <t>Герман Егоров</t>
   </si>
   <si>
+    <t>Александр Дьячковский</t>
+  </si>
+  <si>
+    <t>Елена Винокурова</t>
+  </si>
+  <si>
+    <t>Дарья Янушевская</t>
+  </si>
+  <si>
     <t>Иван Павлов</t>
   </si>
   <si>
-    <t>Сахаайа Никанорова</t>
-  </si>
-  <si>
-    <t>Артур Оконешников</t>
-  </si>
-  <si>
-    <t>Галина Вензель</t>
-  </si>
-  <si>
-    <t>Анатолий Кириллин</t>
-  </si>
-  <si>
-    <t>+79961202149</t>
-  </si>
-  <si>
-    <t>Евдокия Борисова</t>
-  </si>
-  <si>
-    <t>Марина Матвеева</t>
-  </si>
-  <si>
-    <t>Кюнняй Шараборина</t>
-  </si>
-  <si>
-    <t>Andrej Razin</t>
-  </si>
-  <si>
-    <t>Екатерина Потапова</t>
+    <t>Алёна Тарабукина</t>
   </si>
   <si>
     <t>Юлия Адамова</t>
   </si>
   <si>
-    <t>нюргуяна романова</t>
-  </si>
-  <si>
-    <t>Лина Красницкая</t>
-  </si>
-  <si>
-    <t>Алина Никифорова</t>
-  </si>
-  <si>
-    <t>Клара Омукчанова</t>
-  </si>
-  <si>
-    <t>Алёна Тарабукина</t>
-  </si>
-  <si>
-    <t>+79244617989</t>
-  </si>
-  <si>
-    <t>+79246607711</t>
-  </si>
-  <si>
-    <t>Валерия Назарова</t>
-  </si>
-  <si>
-    <t>Ирина Стручкова</t>
-  </si>
-  <si>
-    <t>Евгений Григорьев</t>
-  </si>
-  <si>
-    <t>Ян Березкин</t>
-  </si>
-  <si>
-    <t>Любовь Андреева</t>
-  </si>
-  <si>
-    <t>Венера Степанова</t>
-  </si>
-  <si>
-    <t>Дьулустаан Павлов</t>
-  </si>
-  <si>
-    <t>Степан Куприянов</t>
-  </si>
-  <si>
-    <t>+79142660227</t>
-  </si>
-  <si>
-    <t>Anna Popova</t>
-  </si>
-  <si>
-    <t>Валерия Б</t>
-  </si>
-  <si>
-    <t>Миша Софронов</t>
-  </si>
-  <si>
-    <t>Наталья Вершинина</t>
-  </si>
-  <si>
-    <t>Рудольф Андреев</t>
+    <t>Darya стрелова</t>
+  </si>
+  <si>
+    <t>Павел Корнилов</t>
   </si>
   <si>
     <t>Динар Галиуллин</t>
   </si>
   <si>
-    <t>Дарья Янушевская</t>
-  </si>
-  <si>
-    <t>Елена Винокурова</t>
-  </si>
-  <si>
-    <t>Александр Дьячковский</t>
-  </si>
-  <si>
-    <t>Семён Лебедевев</t>
-  </si>
-  <si>
-    <t>Екатерина Ч</t>
-  </si>
-  <si>
-    <t>Аина Акакиева</t>
-  </si>
-  <si>
-    <t>Марина Артахинова</t>
-  </si>
-  <si>
-    <t>Наталья Афанасьева</t>
-  </si>
-  <si>
-    <t>Вилена Малышева</t>
-  </si>
-  <si>
-    <t>Афанасий Петров</t>
-  </si>
-  <si>
-    <t>Софа Бурлака</t>
-  </si>
-  <si>
-    <t>Николай Андросов</t>
-  </si>
-  <si>
-    <t>Юлия Масюк</t>
+    <t>Александра Коули</t>
+  </si>
+  <si>
+    <t>Кира Слепцова</t>
   </si>
   <si>
     <t>Влада Юзенко</t>
   </si>
   <si>
-    <t>Андрей Михайлов</t>
-  </si>
-  <si>
-    <t>Жика Маликова</t>
-  </si>
-  <si>
-    <t>Алексей Степанов</t>
-  </si>
-  <si>
-    <t>Айыылаана Петрова</t>
-  </si>
-  <si>
-    <t>Саргылаан Тарабукин</t>
-  </si>
-  <si>
-    <t>Лана Захарова</t>
-  </si>
-  <si>
-    <t>Саина Сыроватская</t>
-  </si>
-  <si>
-    <t>Злата Береговая</t>
-  </si>
-  <si>
-    <t>Райан Гослинг</t>
+    <t>+79246605874</t>
+  </si>
+  <si>
+    <t>Александра Босикова</t>
   </si>
   <si>
     <t>Павел Мархакшинов</t>
-  </si>
-  <si>
-    <t>Sardaana Vinokurova</t>
-  </si>
-  <si>
-    <t>Анна Хвастунова</t>
-  </si>
-  <si>
-    <t>Николай Сивцев</t>
-  </si>
-  <si>
-    <t>Екатерина Михайлова</t>
-  </si>
-  <si>
-    <t>Роман Миридонов</t>
-  </si>
-  <si>
-    <t>Эрэл Никитин</t>
-  </si>
-  <si>
-    <t>Сайыына Слепцова</t>
-  </si>
-  <si>
-    <t>Алина Хомякова</t>
-  </si>
-  <si>
-    <t>Мира Афанасьева</t>
-  </si>
-  <si>
-    <t>Аурика Иванова</t>
-  </si>
-  <si>
-    <t>Эльвира Олесова</t>
-  </si>
-  <si>
-    <t>Bogdan Sokolov</t>
-  </si>
-  <si>
-    <t>Дана Галинская</t>
-  </si>
-  <si>
-    <t>Светлана Асекритова</t>
-  </si>
-  <si>
-    <t>Юля Соболева</t>
-  </si>
-  <si>
-    <t>Анастасия Иванова</t>
-  </si>
-  <si>
-    <t>Нина Барашкова</t>
-  </si>
-  <si>
-    <t>+79969144642</t>
-  </si>
-  <si>
-    <t>Сергей Токушев</t>
-  </si>
-  <si>
-    <t>Мырза Христофоров</t>
-  </si>
-  <si>
-    <t>Павел Корнилов</t>
-  </si>
-  <si>
-    <t>Александра Босикова</t>
-  </si>
-  <si>
-    <t>+79246605874</t>
-  </si>
-  <si>
-    <t>Бэлла Петрова</t>
-  </si>
-  <si>
-    <t>Кристина Акимова</t>
-  </si>
-  <si>
-    <t>Валерий Бурцев</t>
-  </si>
-  <si>
-    <t>Ариана Николаева</t>
-  </si>
-  <si>
-    <t>Darya стрелова</t>
-  </si>
-  <si>
-    <t>Айпери Ащерпай</t>
-  </si>
-  <si>
-    <t>Анастасия Легостаева</t>
-  </si>
-  <si>
-    <t>Рожин Илья</t>
-  </si>
-  <si>
-    <t>Жора Колпаков</t>
-  </si>
-  <si>
-    <t>Feya Ром-на</t>
-  </si>
-  <si>
-    <t>Татьяна Гусакова</t>
-  </si>
-  <si>
-    <t>Марина Синцова</t>
-  </si>
-  <si>
-    <t>Александра Коули</t>
-  </si>
-  <si>
-    <t>Кира Слепцова</t>
   </si>
   <si>
     <t>Анастасия Торчик</t>
@@ -531,7 +543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -593,7 +605,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,9 +613,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -641,7 +653,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -711,7 +723,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,18 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -917,7 +922,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B2">
         <v>1099568819101</v>
@@ -937,7 +942,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>1099568819101</v>
@@ -957,7 +962,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4">
         <v>1099568819101</v>
@@ -977,7 +982,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>1099568819101</v>
@@ -997,7 +1002,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>1099568819101</v>
@@ -1017,7 +1022,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>1099568819101</v>
@@ -1037,7 +1042,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B8">
         <v>1099568819101</v>
@@ -1057,7 +1062,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B9">
         <v>1099568819101</v>
@@ -1077,7 +1082,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B10">
         <v>1099573960783</v>
@@ -1097,7 +1102,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>1099558333056</v>
@@ -1117,7 +1122,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B12">
         <v>1099573960783</v>
@@ -1137,7 +1142,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B13">
         <v>1099573960783</v>
@@ -1149,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>4298.8999999999996</v>
+        <v>4298.9</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -1157,7 +1162,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14">
         <v>1099573960783</v>
@@ -1177,19 +1182,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="B15">
-        <v>1099574388974</v>
+        <v>1099572648910</v>
       </c>
       <c r="C15" s="2">
-        <v>44787</v>
+        <v>44746</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15">
-        <v>6093.2</v>
+        <v>3866.9</v>
       </c>
       <c r="F15">
         <v>21</v>
@@ -1197,7 +1202,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B16">
         <v>1099574388974</v>
@@ -1206,7 +1211,7 @@
         <v>44788</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>4830.8</v>
@@ -1217,19 +1222,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B17">
-        <v>1099572648910</v>
+        <v>1099574388974</v>
       </c>
       <c r="C17" s="2">
-        <v>44746</v>
+        <v>44787</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17">
-        <v>3866.9</v>
+        <v>6093.2</v>
       </c>
       <c r="F17">
         <v>21</v>
@@ -1237,7 +1242,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B18">
         <v>1099568819101</v>
@@ -1257,7 +1262,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B19">
         <v>1099573960783</v>
@@ -1277,7 +1282,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>1099573960783</v>
@@ -1289,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>2462.3000000000002</v>
+        <v>2462.3</v>
       </c>
       <c r="F20">
         <v>17</v>
@@ -1297,7 +1302,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B21">
         <v>1099573960783</v>
@@ -1317,7 +1322,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B22">
         <v>1099573960783</v>
@@ -1329,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>2602.1999999999998</v>
+        <v>2602.2</v>
       </c>
       <c r="F22">
         <v>17</v>
@@ -1337,19 +1342,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="B23">
-        <v>1099574388974</v>
+        <v>1099568819101</v>
       </c>
       <c r="C23" s="2">
-        <v>44792</v>
+        <v>44851</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>7439.2</v>
+        <v>3425</v>
       </c>
       <c r="F23">
         <v>16</v>
@@ -1357,19 +1362,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="B24">
-        <v>1099568819101</v>
+        <v>1099574388974</v>
       </c>
       <c r="C24" s="2">
-        <v>44851</v>
+        <v>44792</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>3425</v>
+        <v>7439.2</v>
       </c>
       <c r="F24">
         <v>16</v>
@@ -1377,7 +1382,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>1099557073294</v>
@@ -1397,7 +1402,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B26">
         <v>1099573960783</v>
@@ -1417,19 +1422,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="B27">
-        <v>1099562805625</v>
+        <v>1099573960783</v>
       </c>
       <c r="C27" s="2">
-        <v>44806</v>
+        <v>44788</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>2126.3000000000002</v>
+        <v>3332.5</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -1437,19 +1442,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B28">
-        <v>1099573960783</v>
+        <v>1099574317947</v>
       </c>
       <c r="C28" s="2">
-        <v>44788</v>
+        <v>44792</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>3332.5</v>
+        <v>1701.9</v>
       </c>
       <c r="F28">
         <v>13</v>
@@ -1457,19 +1462,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B29">
-        <v>1099574317947</v>
+        <v>1099573960783</v>
       </c>
       <c r="C29" s="2">
-        <v>44792</v>
+        <v>44794</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>1701.9</v>
+        <v>2138.5</v>
       </c>
       <c r="F29">
         <v>13</v>
@@ -1477,19 +1482,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="B30">
-        <v>1099573960783</v>
+        <v>1099562805625</v>
       </c>
       <c r="C30" s="2">
-        <v>44794</v>
+        <v>44806</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>2138.5</v>
+        <v>2126.3</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -1497,19 +1502,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B31">
         <v>1099573960783</v>
       </c>
       <c r="C31" s="2">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>2248.4</v>
+        <v>2464.5</v>
       </c>
       <c r="F31">
         <v>12</v>
@@ -1517,19 +1522,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B32">
         <v>1099573960783</v>
       </c>
       <c r="C32" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>2464.5</v>
+        <v>2248.4</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -1537,7 +1542,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B33">
         <v>1099573960783</v>
@@ -1557,19 +1562,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B34">
-        <v>1099574317947</v>
+        <v>1099568924431</v>
       </c>
       <c r="C34" s="2">
-        <v>44828</v>
+        <v>44720</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>1525.9</v>
+        <v>1230.2</v>
       </c>
       <c r="F34">
         <v>11</v>
@@ -1577,7 +1582,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B35">
         <v>1099577966807</v>
@@ -1586,10 +1591,10 @@
         <v>44854</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35">
-        <v>2586.6999999999998</v>
+        <v>2586.7</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -1597,19 +1602,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="B36">
-        <v>1099554825144</v>
+        <v>1099577321406</v>
       </c>
       <c r="C36" s="2">
-        <v>44747</v>
+        <v>44914</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>4953.2</v>
+        <v>2310.1</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -1617,19 +1622,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B37">
-        <v>1099577321406</v>
+        <v>1099574317947</v>
       </c>
       <c r="C37" s="2">
-        <v>44914</v>
+        <v>44828</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>2310.1</v>
+        <v>1525.9</v>
       </c>
       <c r="F37">
         <v>11</v>
@@ -1637,19 +1642,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>1099568924431</v>
+        <v>1099554825144</v>
       </c>
       <c r="C38" s="2">
-        <v>44720</v>
+        <v>44763</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>1230.2</v>
+        <v>4001.4</v>
       </c>
       <c r="F38">
         <v>11</v>
@@ -1657,19 +1662,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>1099554825144</v>
       </c>
       <c r="C39" s="2">
-        <v>44763</v>
+        <v>44747</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>4001.4</v>
+        <v>4953.2</v>
       </c>
       <c r="F39">
         <v>11</v>
@@ -1677,7 +1682,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B40">
         <v>1099577321406</v>
@@ -1697,19 +1702,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="B41">
-        <v>1099578018391</v>
+        <v>1099572648910</v>
       </c>
       <c r="C41" s="2">
-        <v>44851</v>
+        <v>44767</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>2068.3000000000002</v>
+        <v>1899</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1717,19 +1722,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="B42">
-        <v>1099566108590</v>
+        <v>1099578018391</v>
       </c>
       <c r="C42" s="2">
-        <v>44767</v>
+        <v>44851</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>11307.9</v>
+        <v>2068.3</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -1737,19 +1742,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43">
         <v>1099572648910</v>
       </c>
       <c r="C43" s="2">
-        <v>44767</v>
+        <v>44750</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>1899</v>
+        <v>1275</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -1757,7 +1762,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B44">
         <v>1099577269025</v>
@@ -1766,7 +1771,7 @@
         <v>44856</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>3268.9</v>
@@ -1777,19 +1782,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="B45">
-        <v>1099572648910</v>
+        <v>1099566108590</v>
       </c>
       <c r="C45" s="2">
-        <v>44750</v>
+        <v>44767</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>1275</v>
+        <v>11307.9</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -1797,19 +1802,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="B46">
-        <v>1099578018391</v>
+        <v>1099572648910</v>
       </c>
       <c r="C46" s="2">
-        <v>44885</v>
+        <v>44747</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>3676</v>
+        <v>1274.7</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -1817,19 +1822,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="B47">
-        <v>1099577321406</v>
+        <v>1099574317947</v>
       </c>
       <c r="C47" s="2">
-        <v>44916</v>
+        <v>44827</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>2629.2</v>
+        <v>1283.5</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -1837,19 +1842,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="B48">
-        <v>1099562805625</v>
+        <v>1099577321406</v>
       </c>
       <c r="C48" s="2">
-        <v>44852</v>
+        <v>44916</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>1356.3</v>
+        <v>2629.2</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -1857,19 +1862,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="B49">
-        <v>1099572648910</v>
+        <v>1099578018391</v>
       </c>
       <c r="C49" s="2">
-        <v>44747</v>
+        <v>44885</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>1274.7</v>
+        <v>3676</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -1877,19 +1882,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="B50">
-        <v>1099574317947</v>
+        <v>1099562805625</v>
       </c>
       <c r="C50" s="2">
-        <v>44827</v>
+        <v>44852</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50">
-        <v>1283.5</v>
+        <v>1356.3</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -1897,7 +1902,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B51">
         <v>1099573960783</v>
@@ -1917,7 +1922,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B52">
         <v>1099568924431</v>
@@ -1926,7 +1931,7 @@
         <v>44715</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>830</v>
@@ -1937,19 +1942,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="B53">
-        <v>1099577269025</v>
+        <v>1099568924431</v>
       </c>
       <c r="C53" s="2">
-        <v>44851</v>
+        <v>44724</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E53">
-        <v>1349</v>
+        <v>1527</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -1957,19 +1962,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B54">
-        <v>1099572648910</v>
+        <v>1099572058166</v>
       </c>
       <c r="C54" s="2">
-        <v>44755</v>
+        <v>44823</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>2579.9</v>
+        <v>1731.8</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -1977,19 +1982,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="B55">
-        <v>1099562805625</v>
+        <v>1099572648910</v>
       </c>
       <c r="C55" s="2">
-        <v>44855</v>
+        <v>44771</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>826.3</v>
+        <v>1700</v>
       </c>
       <c r="F55">
         <v>8</v>
@@ -1997,19 +2002,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="B56">
-        <v>1099572648910</v>
+        <v>1099577269025</v>
       </c>
       <c r="C56" s="2">
-        <v>44771</v>
+        <v>44851</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E56">
-        <v>1700</v>
+        <v>1349</v>
       </c>
       <c r="F56">
         <v>8</v>
@@ -2017,19 +2022,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B57">
-        <v>1099572058166</v>
+        <v>1099562805625</v>
       </c>
       <c r="C57" s="2">
-        <v>44823</v>
+        <v>44855</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>1731.8</v>
+        <v>826.3</v>
       </c>
       <c r="F57">
         <v>8</v>
@@ -2037,19 +2042,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="B58">
-        <v>1099568924431</v>
+        <v>1099574062780</v>
       </c>
       <c r="C58" s="2">
-        <v>44724</v>
+        <v>44874</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>1527</v>
+        <v>2111</v>
       </c>
       <c r="F58">
         <v>8</v>
@@ -2057,19 +2062,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59">
         <v>1099572648910</v>
       </c>
       <c r="C59" s="2">
-        <v>44763</v>
+        <v>44755</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>1354</v>
+        <v>2579.9</v>
       </c>
       <c r="F59">
         <v>8</v>
@@ -2077,19 +2082,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="B60">
-        <v>1099574062780</v>
+        <v>1099572648910</v>
       </c>
       <c r="C60" s="2">
-        <v>44874</v>
+        <v>44763</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>2111</v>
+        <v>1354</v>
       </c>
       <c r="F60">
         <v>8</v>
@@ -2097,19 +2102,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="B61">
-        <v>1099581608434</v>
+        <v>1099573960783</v>
       </c>
       <c r="C61" s="2">
-        <v>44920</v>
+        <v>44787</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>3546.2</v>
+        <v>853.8</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -2117,19 +2122,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="B62">
-        <v>1099580379165</v>
+        <v>1099572648910</v>
       </c>
       <c r="C62" s="2">
-        <v>44909</v>
+        <v>44768</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>1529.2</v>
+        <v>1508</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -2137,19 +2142,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="B63">
-        <v>1099574388974</v>
+        <v>1099564705705</v>
       </c>
       <c r="C63" s="2">
-        <v>44781</v>
+        <v>44722</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E63">
-        <v>1277.3</v>
+        <v>1629.9</v>
       </c>
       <c r="F63">
         <v>7</v>
@@ -2157,19 +2162,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B64">
-        <v>1099573960783</v>
+        <v>1099572648910</v>
       </c>
       <c r="C64" s="2">
-        <v>44787</v>
+        <v>44772</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>853.8</v>
+        <v>1508</v>
       </c>
       <c r="F64">
         <v>7</v>
@@ -2177,7 +2182,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>1099557073294</v>
@@ -2203,13 +2208,13 @@
         <v>1099562805625</v>
       </c>
       <c r="C66" s="2">
-        <v>44842</v>
+        <v>44833</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>889.4</v>
+        <v>1442.8</v>
       </c>
       <c r="F66">
         <v>7</v>
@@ -2217,19 +2222,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="B67">
-        <v>1099562805625</v>
+        <v>1099573503858</v>
       </c>
       <c r="C67" s="2">
-        <v>44833</v>
+        <v>44770</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E67">
-        <v>1442.8</v>
+        <v>1893</v>
       </c>
       <c r="F67">
         <v>7</v>
@@ -2237,19 +2242,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="B68">
-        <v>1099568924431</v>
+        <v>1099580379165</v>
       </c>
       <c r="C68" s="2">
-        <v>44725</v>
+        <v>44909</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>1622.4</v>
+        <v>1529.2</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -2257,19 +2262,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="B69">
-        <v>1099573503858</v>
+        <v>1099574388974</v>
       </c>
       <c r="C69" s="2">
-        <v>44770</v>
+        <v>44781</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>1893</v>
+        <v>1277.3</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -2277,19 +2282,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="B70">
-        <v>1099572648910</v>
+        <v>1099581608434</v>
       </c>
       <c r="C70" s="2">
-        <v>44772</v>
+        <v>44920</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>1508</v>
+        <v>3546.2</v>
       </c>
       <c r="F70">
         <v>7</v>
@@ -2297,19 +2302,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B71">
-        <v>1099572648910</v>
+        <v>1099568924431</v>
       </c>
       <c r="C71" s="2">
-        <v>44768</v>
+        <v>44725</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>1508</v>
+        <v>1622.4</v>
       </c>
       <c r="F71">
         <v>7</v>
@@ -2317,19 +2322,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B72">
-        <v>1099564705705</v>
+        <v>1099562805625</v>
       </c>
       <c r="C72" s="2">
-        <v>44722</v>
+        <v>44842</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E72">
-        <v>1629.9</v>
+        <v>889.4</v>
       </c>
       <c r="F72">
         <v>7</v>
@@ -2337,19 +2342,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>1099562805625</v>
       </c>
       <c r="C73" s="2">
-        <v>44845</v>
+        <v>44853</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>1237.4000000000001</v>
+        <v>943.3</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -2357,19 +2362,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B74">
-        <v>1099564705705</v>
+        <v>1099568379493</v>
       </c>
       <c r="C74" s="2">
-        <v>44723</v>
+        <v>44729</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>1229.8</v>
+        <v>1532.4</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -2377,19 +2382,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B75">
         <v>1099562805625</v>
       </c>
       <c r="C75" s="2">
-        <v>44829</v>
+        <v>44845</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75">
-        <v>835.7</v>
+        <v>1237.4</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -2397,19 +2402,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="B76">
-        <v>1099562805625</v>
+        <v>1099581608434</v>
       </c>
       <c r="C76" s="2">
-        <v>44853</v>
+        <v>44924</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>943.3</v>
+        <v>972</v>
       </c>
       <c r="F76">
         <v>6</v>
@@ -2417,19 +2422,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B77">
-        <v>1099572648910</v>
+        <v>1099562805625</v>
       </c>
       <c r="C77" s="2">
-        <v>44764</v>
+        <v>44829</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>2769.2</v>
+        <v>835.7</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -2437,19 +2442,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>1099574317947</v>
+        <v>1099551926183</v>
       </c>
       <c r="C78" s="2">
-        <v>44871</v>
+        <v>44728</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>840</v>
+        <v>441</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -2457,19 +2462,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B79">
-        <v>1099568379493</v>
+        <v>1099562805625</v>
       </c>
       <c r="C79" s="2">
-        <v>44729</v>
+        <v>44718</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E79">
-        <v>1532.4</v>
+        <v>1262</v>
       </c>
       <c r="F79">
         <v>6</v>
@@ -2477,19 +2482,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="B80">
-        <v>1099580004160</v>
+        <v>1099572648910</v>
       </c>
       <c r="C80" s="2">
-        <v>44910</v>
+        <v>44764</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>1315.3</v>
+        <v>2769.2</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2497,19 +2502,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="B81">
-        <v>1099577269025</v>
+        <v>1099568924431</v>
       </c>
       <c r="C81" s="2">
-        <v>44839</v>
+        <v>44723</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E81">
-        <v>557.29999999999995</v>
+        <v>974.4</v>
       </c>
       <c r="F81">
         <v>6</v>
@@ -2517,19 +2522,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="B82">
-        <v>1099577321406</v>
+        <v>1099564705705</v>
       </c>
       <c r="C82" s="2">
-        <v>44915</v>
+        <v>44723</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E82">
-        <v>2480.1999999999998</v>
+        <v>1229.8</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -2537,19 +2542,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="B83">
-        <v>1099577269025</v>
+        <v>1099574317947</v>
       </c>
       <c r="C83" s="2">
-        <v>44852</v>
+        <v>44871</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>975</v>
+        <v>840</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -2557,19 +2562,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>101</v>
+        <v>333</v>
       </c>
       <c r="B84">
-        <v>1099562805625</v>
+        <v>1099580004160</v>
       </c>
       <c r="C84" s="2">
-        <v>44718</v>
+        <v>44910</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>1262</v>
+        <v>1315.3</v>
       </c>
       <c r="F84">
         <v>6</v>
@@ -2577,19 +2582,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B85">
-        <v>1099568924431</v>
+        <v>1099555575945</v>
       </c>
       <c r="C85" s="2">
-        <v>44723</v>
+        <v>44931</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E85">
-        <v>974.4</v>
+        <v>438.2</v>
       </c>
       <c r="F85">
         <v>6</v>
@@ -2597,7 +2602,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B86">
         <v>1099574608389</v>
@@ -2606,7 +2611,7 @@
         <v>44897</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E86">
         <v>2450.4</v>
@@ -2617,19 +2622,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="B87">
-        <v>1099581608434</v>
+        <v>1099577269025</v>
       </c>
       <c r="C87" s="2">
-        <v>44924</v>
+        <v>44852</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -2637,19 +2642,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="B88">
-        <v>1099556732312</v>
+        <v>1099577269025</v>
       </c>
       <c r="C88" s="2">
-        <v>44805</v>
+        <v>44839</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>457</v>
+        <v>557.3</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -2657,19 +2662,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="B89">
-        <v>1099551926183</v>
+        <v>1099577321406</v>
       </c>
       <c r="C89" s="2">
-        <v>44728</v>
+        <v>44915</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>441</v>
+        <v>2480.2</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -2677,39 +2682,39 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B90">
-        <v>1099559989844</v>
+        <v>1099556732312</v>
       </c>
       <c r="C90" s="2">
-        <v>44801</v>
+        <v>44805</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
       </c>
       <c r="E90">
-        <v>1043.33</v>
+        <v>457</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B91">
-        <v>1099574317947</v>
+        <v>1099574768478</v>
       </c>
       <c r="C91" s="2">
-        <v>44775</v>
+        <v>44839</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E91">
-        <v>1972</v>
+        <v>897</v>
       </c>
       <c r="F91">
         <v>5</v>
@@ -2717,19 +2722,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B92">
-        <v>1099574108402</v>
+        <v>1099574608389</v>
       </c>
       <c r="C92" s="2">
-        <v>44802</v>
+        <v>44889</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E92">
-        <v>2707</v>
+        <v>1061.7</v>
       </c>
       <c r="F92">
         <v>5</v>
@@ -2737,19 +2742,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="B93">
-        <v>1099574108402</v>
+        <v>1099581608434</v>
       </c>
       <c r="C93" s="2">
-        <v>44801</v>
+        <v>44935</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>805.3</v>
+        <v>1772.2</v>
       </c>
       <c r="F93">
         <v>5</v>
@@ -2757,19 +2762,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="B94">
-        <v>1099574106618</v>
+        <v>1099582221101</v>
       </c>
       <c r="C94" s="2">
-        <v>44777</v>
+        <v>44937</v>
       </c>
       <c r="D94" t="s">
         <v>33</v>
       </c>
       <c r="E94">
-        <v>754</v>
+        <v>1036.2</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -2777,19 +2782,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="B95">
-        <v>1099555660873</v>
+        <v>1099574653569</v>
       </c>
       <c r="C95" s="2">
-        <v>44718</v>
+        <v>44804</v>
       </c>
       <c r="D95" t="s">
         <v>34</v>
       </c>
       <c r="E95">
-        <v>280</v>
+        <v>925</v>
       </c>
       <c r="F95">
         <v>5</v>
@@ -2797,19 +2802,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="B96">
-        <v>1099574062780</v>
+        <v>1099568747719</v>
       </c>
       <c r="C96" s="2">
-        <v>44862</v>
+        <v>44741</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E96">
-        <v>512</v>
+        <v>706</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -2817,19 +2822,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B97">
-        <v>1099573960783</v>
+        <v>1099568579120</v>
       </c>
       <c r="C97" s="2">
-        <v>44803</v>
+        <v>44742</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E97">
-        <v>552</v>
+        <v>479.6</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -2837,19 +2842,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
+        <v>279</v>
+      </c>
+      <c r="B98">
+        <v>1099575366722</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44815</v>
+      </c>
+      <c r="D98" t="s">
         <v>37</v>
       </c>
-      <c r="B98">
-        <v>1099556088849</v>
-      </c>
-      <c r="C98" s="2">
-        <v>44825</v>
-      </c>
-      <c r="D98" t="s">
-        <v>35</v>
-      </c>
       <c r="E98">
-        <v>422.6</v>
+        <v>577.5</v>
       </c>
       <c r="F98">
         <v>5</v>
@@ -2857,19 +2862,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="B99">
-        <v>1099573503858</v>
+        <v>1099568678396</v>
       </c>
       <c r="C99" s="2">
-        <v>44771</v>
+        <v>44720</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E99">
-        <v>1196.2</v>
+        <v>514.95</v>
       </c>
       <c r="F99">
         <v>5</v>
@@ -2877,19 +2882,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="B100">
-        <v>1099572648910</v>
+        <v>1099575907546</v>
       </c>
       <c r="C100" s="2">
-        <v>44759</v>
+        <v>44828</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E100">
-        <v>814</v>
+        <v>576.9</v>
       </c>
       <c r="F100">
         <v>5</v>
@@ -2897,19 +2902,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="B101">
-        <v>1099574317947</v>
+        <v>1099568379493</v>
       </c>
       <c r="C101" s="2">
-        <v>44805</v>
+        <v>44746</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>1348.9</v>
+        <v>689.3</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -2917,19 +2922,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="B102">
-        <v>1099557073294</v>
+        <v>1099577269025</v>
       </c>
       <c r="C102" s="2">
-        <v>44840</v>
+        <v>44848</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>593</v>
+        <v>1691.4</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -2937,19 +2942,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="B103">
-        <v>1099572107872</v>
+        <v>1099577269025</v>
       </c>
       <c r="C103" s="2">
-        <v>44741</v>
+        <v>44855</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E103">
-        <v>502.7</v>
+        <v>2543.9</v>
       </c>
       <c r="F103">
         <v>5</v>
@@ -2957,19 +2962,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="B104">
-        <v>1099572058166</v>
+        <v>1099577321406</v>
       </c>
       <c r="C104" s="2">
-        <v>44819</v>
+        <v>44870</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>2596.81</v>
+        <v>520.2</v>
       </c>
       <c r="F104">
         <v>5</v>
@@ -2977,19 +2982,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B105">
-        <v>1099568924431</v>
+        <v>1099564705705</v>
       </c>
       <c r="C105" s="2">
-        <v>44735</v>
+        <v>44753</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>673</v>
+        <v>1104.3</v>
       </c>
       <c r="F105">
         <v>5</v>
@@ -2997,19 +3002,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="B106">
-        <v>1099557211839</v>
+        <v>1099574608389</v>
       </c>
       <c r="C106" s="2">
-        <v>44769</v>
+        <v>44887</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E106">
-        <v>658</v>
+        <v>1942.8</v>
       </c>
       <c r="F106">
         <v>5</v>
@@ -3017,19 +3022,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="B107">
-        <v>1099568747719</v>
+        <v>1099573503858</v>
       </c>
       <c r="C107" s="2">
-        <v>44741</v>
+        <v>44771</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E107">
-        <v>706</v>
+        <v>1196.2</v>
       </c>
       <c r="F107">
         <v>5</v>
@@ -3037,19 +3042,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="B108">
-        <v>1099568678396</v>
+        <v>1099580379165</v>
       </c>
       <c r="C108" s="2">
-        <v>44720</v>
+        <v>44915</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>514.95000000000005</v>
+        <v>1788.7</v>
       </c>
       <c r="F108">
         <v>5</v>
@@ -3057,19 +3062,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B109">
-        <v>1099568579120</v>
+        <v>1099573734489</v>
       </c>
       <c r="C109" s="2">
-        <v>44742</v>
+        <v>44771</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
       </c>
       <c r="E109">
-        <v>479.6</v>
+        <v>815</v>
       </c>
       <c r="F109">
         <v>5</v>
@@ -3077,19 +3082,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="B110">
-        <v>1099574317947</v>
+        <v>1099577321406</v>
       </c>
       <c r="C110" s="2">
-        <v>44780</v>
+        <v>44883</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>577.20000000000005</v>
+        <v>2287</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -3097,19 +3102,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="B111">
-        <v>1099574317947</v>
+        <v>1099578962382</v>
       </c>
       <c r="C111" s="2">
-        <v>44831</v>
+        <v>44924</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E111">
-        <v>951.3</v>
+        <v>1389</v>
       </c>
       <c r="F111">
         <v>5</v>
@@ -3117,19 +3122,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="B112">
-        <v>1099559218150</v>
+        <v>1099577966807</v>
       </c>
       <c r="C112" s="2">
-        <v>44716</v>
+        <v>44859</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>1213.4000000000001</v>
+        <v>1101.4</v>
       </c>
       <c r="F112">
         <v>5</v>
@@ -3137,19 +3142,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B113">
-        <v>1099574317947</v>
+        <v>1099573960783</v>
       </c>
       <c r="C113" s="2">
-        <v>44859</v>
+        <v>44803</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -3157,19 +3162,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="B114">
-        <v>1099580379165</v>
+        <v>1099572648910</v>
       </c>
       <c r="C114" s="2">
-        <v>44915</v>
+        <v>44759</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>1788.7</v>
+        <v>814</v>
       </c>
       <c r="F114">
         <v>5</v>
@@ -3177,19 +3182,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="B115">
-        <v>1099580379165</v>
+        <v>1099574062780</v>
       </c>
       <c r="C115" s="2">
-        <v>44911</v>
+        <v>44862</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E115">
-        <v>604.79999999999995</v>
+        <v>512</v>
       </c>
       <c r="F115">
         <v>5</v>
@@ -3197,19 +3202,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="B116">
-        <v>1099578962382</v>
+        <v>1099574062780</v>
       </c>
       <c r="C116" s="2">
-        <v>44924</v>
+        <v>44936</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E116">
-        <v>1389</v>
+        <v>3082</v>
       </c>
       <c r="F116">
         <v>5</v>
@@ -3217,19 +3222,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="B117">
-        <v>1099577966807</v>
+        <v>1099574106618</v>
       </c>
       <c r="C117" s="2">
-        <v>44859</v>
+        <v>44777</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E117">
-        <v>1101.4000000000001</v>
+        <v>754</v>
       </c>
       <c r="F117">
         <v>5</v>
@@ -3237,19 +3242,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="B118">
-        <v>1099577321406</v>
+        <v>1099574108402</v>
       </c>
       <c r="C118" s="2">
-        <v>44883</v>
+        <v>44801</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E118">
-        <v>2287</v>
+        <v>805.3</v>
       </c>
       <c r="F118">
         <v>5</v>
@@ -3257,19 +3262,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="B119">
-        <v>1099577321406</v>
+        <v>1099572107872</v>
       </c>
       <c r="C119" s="2">
-        <v>44870</v>
+        <v>44741</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E119">
-        <v>520.20000000000005</v>
+        <v>502.7</v>
       </c>
       <c r="F119">
         <v>5</v>
@@ -3277,19 +3282,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="B120">
-        <v>1099554825144</v>
+        <v>1099574108402</v>
       </c>
       <c r="C120" s="2">
-        <v>44767</v>
+        <v>44802</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E120">
-        <v>359</v>
+        <v>2707</v>
       </c>
       <c r="F120">
         <v>5</v>
@@ -3297,19 +3302,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="B121">
-        <v>1099577269025</v>
+        <v>1099572058166</v>
       </c>
       <c r="C121" s="2">
-        <v>44855</v>
+        <v>44819</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E121">
-        <v>2543.9</v>
+        <v>2596.81</v>
       </c>
       <c r="F121">
         <v>5</v>
@@ -3317,19 +3322,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="B122">
-        <v>1099554825144</v>
+        <v>1099568924431</v>
       </c>
       <c r="C122" s="2">
-        <v>44768</v>
+        <v>44735</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E122">
-        <v>1289.8</v>
+        <v>673</v>
       </c>
       <c r="F122">
         <v>5</v>
@@ -3337,19 +3342,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="B123">
-        <v>1099577269025</v>
+        <v>1099574317947</v>
       </c>
       <c r="C123" s="2">
-        <v>44848</v>
+        <v>44775</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>1691.4</v>
+        <v>1972</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -3357,19 +3362,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="B124">
-        <v>1099554825144</v>
+        <v>1099574317947</v>
       </c>
       <c r="C124" s="2">
-        <v>44782</v>
+        <v>44780</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E124">
-        <v>1853.2</v>
+        <v>577.2</v>
       </c>
       <c r="F124">
         <v>5</v>
@@ -3377,19 +3382,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B125">
-        <v>1099575907546</v>
+        <v>1099574317947</v>
       </c>
       <c r="C125" s="2">
-        <v>44828</v>
+        <v>44805</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>576.9</v>
+        <v>1348.9</v>
       </c>
       <c r="F125">
         <v>5</v>
@@ -3397,19 +3402,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B126">
-        <v>1099575366722</v>
+        <v>1099574317947</v>
       </c>
       <c r="C126" s="2">
-        <v>44815</v>
+        <v>44831</v>
       </c>
       <c r="D126" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E126">
-        <v>577.5</v>
+        <v>951.3</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -3417,19 +3422,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B127">
-        <v>1099574768478</v>
+        <v>1099574317947</v>
       </c>
       <c r="C127" s="2">
-        <v>44839</v>
+        <v>44859</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>897</v>
+        <v>583</v>
       </c>
       <c r="F127">
         <v>5</v>
@@ -3437,19 +3442,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="B128">
-        <v>1099574653569</v>
+        <v>1099580379165</v>
       </c>
       <c r="C128" s="2">
-        <v>44804</v>
+        <v>44911</v>
       </c>
       <c r="D128" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E128">
-        <v>925</v>
+        <v>604.8</v>
       </c>
       <c r="F128">
         <v>5</v>
@@ -3457,19 +3462,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="B129">
-        <v>1099574608389</v>
+        <v>1099579041887</v>
       </c>
       <c r="C129" s="2">
-        <v>44889</v>
+        <v>44936</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E129">
-        <v>1061.7</v>
+        <v>2867</v>
       </c>
       <c r="F129">
         <v>5</v>
@@ -3477,19 +3482,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="B130">
-        <v>1099574608389</v>
+        <v>1099582633824</v>
       </c>
       <c r="C130" s="2">
-        <v>44887</v>
+        <v>44936</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E130">
-        <v>1942.8</v>
+        <v>2154</v>
       </c>
       <c r="F130">
         <v>5</v>
@@ -3497,19 +3502,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B131">
-        <v>1099555056023</v>
+        <v>1099557073294</v>
       </c>
       <c r="C131" s="2">
-        <v>44795</v>
+        <v>44840</v>
       </c>
       <c r="D131" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>1220</v>
+        <v>593</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -3517,19 +3522,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B132">
-        <v>1099555473736</v>
+        <v>1099554825144</v>
       </c>
       <c r="C132" s="2">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E132">
-        <v>2504.1999999999998</v>
+        <v>359</v>
       </c>
       <c r="F132">
         <v>5</v>
@@ -3537,19 +3542,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="B133">
-        <v>1099568379493</v>
+        <v>1099554825144</v>
       </c>
       <c r="C133" s="2">
-        <v>44746</v>
+        <v>44782</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>689.3</v>
+        <v>1853.2</v>
       </c>
       <c r="F133">
         <v>5</v>
@@ -3557,19 +3562,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="B134">
-        <v>1099573734489</v>
+        <v>1099562805625</v>
       </c>
       <c r="C134" s="2">
-        <v>44771</v>
+        <v>44837</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>815</v>
+        <v>984.3000000000001</v>
       </c>
       <c r="F134">
         <v>5</v>
@@ -3577,19 +3582,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B135">
-        <v>1099559682137</v>
+        <v>1099556088849</v>
       </c>
       <c r="C135" s="2">
         <v>44825</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E135">
-        <v>988</v>
+        <v>422.6</v>
       </c>
       <c r="F135">
         <v>5</v>
@@ -3597,19 +3602,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B136">
-        <v>1099564705705</v>
+        <v>1099562805625</v>
       </c>
       <c r="C136" s="2">
-        <v>44753</v>
+        <v>44828</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>1104.3</v>
+        <v>1339</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -3617,19 +3622,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B137">
         <v>1099562805625</v>
       </c>
       <c r="C137" s="2">
-        <v>44849</v>
+        <v>44827</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137">
-        <v>777.6</v>
+        <v>1284.9</v>
       </c>
       <c r="F137">
         <v>5</v>
@@ -3637,19 +3642,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B138">
-        <v>1099562805625</v>
+        <v>1099555056023</v>
       </c>
       <c r="C138" s="2">
-        <v>44828</v>
+        <v>44795</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E138">
-        <v>1339</v>
+        <v>1220</v>
       </c>
       <c r="F138">
         <v>5</v>
@@ -3663,13 +3668,13 @@
         <v>1099562805625</v>
       </c>
       <c r="C139" s="2">
-        <v>44827</v>
+        <v>44805</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>1284.9000000000001</v>
+        <v>1243</v>
       </c>
       <c r="F139">
         <v>5</v>
@@ -3677,19 +3682,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B140">
-        <v>1099559326458</v>
+        <v>1099562805625</v>
       </c>
       <c r="C140" s="2">
-        <v>44771</v>
+        <v>44737</v>
       </c>
       <c r="D140" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>1172.7</v>
+        <v>928.9</v>
       </c>
       <c r="F140">
         <v>5</v>
@@ -3697,19 +3702,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B141">
-        <v>1099559899256</v>
+        <v>1099562805625</v>
       </c>
       <c r="C141" s="2">
-        <v>44773</v>
+        <v>44722</v>
       </c>
       <c r="D141" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E141">
-        <v>686</v>
+        <v>522</v>
       </c>
       <c r="F141">
         <v>5</v>
@@ -3717,19 +3722,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B142">
         <v>1099562805625</v>
       </c>
       <c r="C142" s="2">
-        <v>44805</v>
+        <v>44721</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>1243</v>
+        <v>870.5</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -3737,19 +3742,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B143">
-        <v>1099562805625</v>
+        <v>1099559218150</v>
       </c>
       <c r="C143" s="2">
-        <v>44737</v>
+        <v>44716</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E143">
-        <v>928.9</v>
+        <v>1213.4</v>
       </c>
       <c r="F143">
         <v>5</v>
@@ -3757,19 +3762,19 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B144">
-        <v>1099562805625</v>
+        <v>1099555473736</v>
       </c>
       <c r="C144" s="2">
-        <v>44722</v>
+        <v>44761</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E144">
-        <v>522</v>
+        <v>2504.2</v>
       </c>
       <c r="F144">
         <v>5</v>
@@ -3777,19 +3782,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B145">
-        <v>1099562805625</v>
+        <v>1099559326458</v>
       </c>
       <c r="C145" s="2">
-        <v>44721</v>
+        <v>44771</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E145">
-        <v>870.5</v>
+        <v>1172.7</v>
       </c>
       <c r="F145">
         <v>5</v>
@@ -3797,19 +3802,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B146">
-        <v>1099563385418</v>
+        <v>1099560865817</v>
       </c>
       <c r="C146" s="2">
-        <v>44843</v>
+        <v>44851</v>
       </c>
       <c r="D146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E146">
-        <v>1181</v>
+        <v>349</v>
       </c>
       <c r="F146">
         <v>5</v>
@@ -3817,19 +3822,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B147">
-        <v>1099559989844</v>
+        <v>1099555660873</v>
       </c>
       <c r="C147" s="2">
-        <v>44778</v>
+        <v>44718</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E147">
-        <v>2488.1</v>
+        <v>280</v>
       </c>
       <c r="F147">
         <v>5</v>
@@ -3837,19 +3842,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B148">
-        <v>1099560865817</v>
+        <v>1099559682137</v>
       </c>
       <c r="C148" s="2">
-        <v>44851</v>
+        <v>44825</v>
       </c>
       <c r="D148" t="s">
         <v>54</v>
       </c>
       <c r="E148">
-        <v>349</v>
+        <v>988</v>
       </c>
       <c r="F148">
         <v>5</v>
@@ -3857,19 +3862,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B149">
-        <v>1099562805625</v>
+        <v>1099559899256</v>
       </c>
       <c r="C149" s="2">
-        <v>44837</v>
+        <v>44773</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E149">
-        <v>984.30000000000007</v>
+        <v>686</v>
       </c>
       <c r="F149">
         <v>5</v>
@@ -3877,19 +3882,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B150">
-        <v>1099559994537</v>
+        <v>1099559989844</v>
       </c>
       <c r="C150" s="2">
-        <v>44716</v>
+        <v>44778</v>
       </c>
       <c r="D150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E150">
-        <v>558</v>
+        <v>2488.1</v>
       </c>
       <c r="F150">
         <v>5</v>
@@ -3897,139 +3902,139 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B151">
-        <v>1099553611188</v>
+        <v>1099559989844</v>
       </c>
       <c r="C151" s="2">
-        <v>44776</v>
+        <v>44801</v>
       </c>
       <c r="D151" t="s">
         <v>56</v>
       </c>
       <c r="E151">
-        <v>483.1</v>
+        <v>1043.33</v>
       </c>
       <c r="F151">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="B152">
-        <v>1099574317947</v>
+        <v>1099554825144</v>
       </c>
       <c r="C152" s="2">
-        <v>44882</v>
+        <v>44768</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>657.6</v>
+        <v>1289.8</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B153">
-        <v>1099552694779</v>
+        <v>1099559994537</v>
       </c>
       <c r="C153" s="2">
-        <v>44835</v>
+        <v>44716</v>
       </c>
       <c r="D153" t="s">
         <v>57</v>
       </c>
       <c r="E153">
-        <v>1217</v>
+        <v>558</v>
       </c>
       <c r="F153">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B154">
-        <v>1099555471358</v>
+        <v>1099562805625</v>
       </c>
       <c r="C154" s="2">
-        <v>44745</v>
+        <v>44849</v>
       </c>
       <c r="D154" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E154">
-        <v>785.12</v>
+        <v>777.6</v>
       </c>
       <c r="F154">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B155">
-        <v>1099555313901</v>
+        <v>1099563385418</v>
       </c>
       <c r="C155" s="2">
-        <v>44784</v>
+        <v>44843</v>
       </c>
       <c r="D155" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E155">
-        <v>2618</v>
+        <v>1181</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B156">
-        <v>1099552769561</v>
+        <v>1099557211839</v>
       </c>
       <c r="C156" s="2">
-        <v>44775</v>
+        <v>44769</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E156">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="B157">
-        <v>1099562805625</v>
+        <v>1099556168324</v>
       </c>
       <c r="C157" s="2">
-        <v>44795</v>
+        <v>44791</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E157">
-        <v>1113.2</v>
+        <v>467.5</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -4037,19 +4042,19 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="B158">
-        <v>1099574608389</v>
+        <v>1099555938447</v>
       </c>
       <c r="C158" s="2">
-        <v>44888</v>
+        <v>44796</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E158">
-        <v>816.1</v>
+        <v>520</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -4057,19 +4062,19 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="B159">
-        <v>1099579987675</v>
+        <v>1099575178128</v>
       </c>
       <c r="C159" s="2">
-        <v>44886</v>
+        <v>44904</v>
       </c>
       <c r="D159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E159">
-        <v>427.2</v>
+        <v>567</v>
       </c>
       <c r="F159">
         <v>4</v>
@@ -4077,19 +4082,19 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="B160">
-        <v>1099574608389</v>
+        <v>1099555938867</v>
       </c>
       <c r="C160" s="2">
-        <v>44896</v>
+        <v>44769</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E160">
-        <v>961.8</v>
+        <v>309.8</v>
       </c>
       <c r="F160">
         <v>4</v>
@@ -4097,19 +4102,19 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="B161">
-        <v>1099554825144</v>
+        <v>1099575689308</v>
       </c>
       <c r="C161" s="2">
-        <v>44795</v>
+        <v>44802</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E161">
-        <v>1129.5</v>
+        <v>758.3</v>
       </c>
       <c r="F161">
         <v>4</v>
@@ -4117,19 +4122,19 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="B162">
-        <v>1099579590041</v>
+        <v>1099556340695</v>
       </c>
       <c r="C162" s="2">
-        <v>44871</v>
+        <v>44838</v>
       </c>
       <c r="D162" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E162">
-        <v>902</v>
+        <v>767</v>
       </c>
       <c r="F162">
         <v>4</v>
@@ -4137,19 +4142,19 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="B163">
-        <v>1099574751085</v>
+        <v>1099556476908</v>
       </c>
       <c r="C163" s="2">
-        <v>44787</v>
+        <v>44776</v>
       </c>
       <c r="D163" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E163">
-        <v>1800</v>
+        <v>326</v>
       </c>
       <c r="F163">
         <v>4</v>
@@ -4157,19 +4162,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B164">
-        <v>1099579313477</v>
+        <v>1099575907546</v>
       </c>
       <c r="C164" s="2">
-        <v>44885</v>
+        <v>44822</v>
       </c>
       <c r="D164" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E164">
-        <v>282</v>
+        <v>1350</v>
       </c>
       <c r="F164">
         <v>4</v>
@@ -4177,19 +4182,19 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="B165">
-        <v>1099574773727</v>
+        <v>1099556619338</v>
       </c>
       <c r="C165" s="2">
-        <v>44785</v>
+        <v>44823</v>
       </c>
       <c r="D165" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E165">
-        <v>565</v>
+        <v>1360</v>
       </c>
       <c r="F165">
         <v>4</v>
@@ -4197,19 +4202,19 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B166">
-        <v>1099574810731</v>
+        <v>1099574876610</v>
       </c>
       <c r="C166" s="2">
-        <v>44815</v>
+        <v>44788</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E166">
-        <v>480.9</v>
+        <v>517</v>
       </c>
       <c r="F166">
         <v>4</v>
@@ -4217,19 +4222,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B167">
-        <v>1099579224466</v>
+        <v>1099575907546</v>
       </c>
       <c r="C167" s="2">
-        <v>44858</v>
+        <v>44835</v>
       </c>
       <c r="D167" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E167">
-        <v>497.4</v>
+        <v>453.1</v>
       </c>
       <c r="F167">
         <v>4</v>
@@ -4237,19 +4242,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B168">
-        <v>1099574876610</v>
+        <v>1099575907546</v>
       </c>
       <c r="C168" s="2">
-        <v>44788</v>
+        <v>44857</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E168">
-        <v>517</v>
+        <v>887.5</v>
       </c>
       <c r="F168">
         <v>4</v>
@@ -4257,19 +4262,19 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B169">
-        <v>1099575115746</v>
+        <v>1099574317947</v>
       </c>
       <c r="C169" s="2">
-        <v>44799</v>
+        <v>44826</v>
       </c>
       <c r="D169" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>2659.4</v>
+        <v>314.3</v>
       </c>
       <c r="F169">
         <v>4</v>
@@ -4277,19 +4282,19 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B170">
-        <v>1099575178128</v>
+        <v>1099575907546</v>
       </c>
       <c r="C170" s="2">
-        <v>44904</v>
+        <v>44860</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E170">
-        <v>567</v>
+        <v>1537.6</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -4297,19 +4302,19 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="B171">
-        <v>1099574376616</v>
+        <v>1099556622395</v>
       </c>
       <c r="C171" s="2">
-        <v>44919</v>
+        <v>44936</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E171">
-        <v>1309</v>
+        <v>573</v>
       </c>
       <c r="F171">
         <v>4</v>
@@ -4317,19 +4322,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="B172">
-        <v>1099555540823</v>
+        <v>1099574317947</v>
       </c>
       <c r="C172" s="2">
-        <v>44819</v>
+        <v>44804</v>
       </c>
       <c r="D172" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>300</v>
+        <v>205.1</v>
       </c>
       <c r="F172">
         <v>4</v>
@@ -4337,19 +4342,19 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="B173">
-        <v>1099553611188</v>
+        <v>1099575907546</v>
       </c>
       <c r="C173" s="2">
-        <v>44861</v>
+        <v>44872</v>
       </c>
       <c r="D173" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E173">
-        <v>908.9</v>
+        <v>764.4</v>
       </c>
       <c r="F173">
         <v>4</v>
@@ -4357,19 +4362,19 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="B174">
-        <v>1099574317947</v>
+        <v>1099575940341</v>
       </c>
       <c r="C174" s="2">
-        <v>44804</v>
+        <v>44812</v>
       </c>
       <c r="D174" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E174">
-        <v>205.1</v>
+        <v>640</v>
       </c>
       <c r="F174">
         <v>4</v>
@@ -4377,19 +4382,19 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="B175">
-        <v>1099574296783</v>
+        <v>1099575115746</v>
       </c>
       <c r="C175" s="2">
-        <v>44837</v>
+        <v>44799</v>
       </c>
       <c r="D175" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E175">
-        <v>1439.6</v>
+        <v>2659.4</v>
       </c>
       <c r="F175">
         <v>4</v>
@@ -4397,19 +4402,19 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="B176">
-        <v>1099559820938</v>
+        <v>1099574773727</v>
       </c>
       <c r="C176" s="2">
-        <v>44867</v>
+        <v>44785</v>
       </c>
       <c r="D176" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E176">
-        <v>797</v>
+        <v>565</v>
       </c>
       <c r="F176">
         <v>4</v>
@@ -4417,19 +4422,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="B177">
-        <v>1099574317947</v>
+        <v>1099574810731</v>
       </c>
       <c r="C177" s="2">
-        <v>44778</v>
+        <v>44815</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E177">
-        <v>392.5</v>
+        <v>480.9</v>
       </c>
       <c r="F177">
         <v>4</v>
@@ -4437,19 +4442,19 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B178">
-        <v>1099559899256</v>
+        <v>1099556157998</v>
       </c>
       <c r="C178" s="2">
-        <v>44766</v>
+        <v>44923</v>
       </c>
       <c r="D178" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E178">
-        <v>561.79999999999995</v>
+        <v>232.8</v>
       </c>
       <c r="F178">
         <v>4</v>
@@ -4457,19 +4462,19 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="B179">
-        <v>1099574317947</v>
+        <v>1099556180299</v>
       </c>
       <c r="C179" s="2">
-        <v>44782</v>
+        <v>44726</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E179">
-        <v>816.63</v>
+        <v>588</v>
       </c>
       <c r="F179">
         <v>4</v>
@@ -4477,19 +4482,19 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B180">
-        <v>1099555647222</v>
+        <v>1099556180299</v>
       </c>
       <c r="C180" s="2">
-        <v>44788</v>
+        <v>44739</v>
       </c>
       <c r="D180" t="s">
         <v>75</v>
       </c>
       <c r="E180">
-        <v>242</v>
+        <v>491</v>
       </c>
       <c r="F180">
         <v>4</v>
@@ -4497,19 +4502,19 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B181">
-        <v>1099574317947</v>
+        <v>1099574608389</v>
       </c>
       <c r="C181" s="2">
-        <v>44793</v>
+        <v>44888</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E181">
-        <v>202.2</v>
+        <v>816.1</v>
       </c>
       <c r="F181">
         <v>4</v>
@@ -4517,19 +4522,19 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B182">
-        <v>1099559989844</v>
+        <v>1099556018999</v>
       </c>
       <c r="C182" s="2">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E182">
-        <v>315.2</v>
+        <v>1060</v>
       </c>
       <c r="F182">
         <v>4</v>
@@ -4537,19 +4542,19 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="B183">
-        <v>1099581306640</v>
+        <v>1099574608389</v>
       </c>
       <c r="C183" s="2">
-        <v>44916</v>
+        <v>44896</v>
       </c>
       <c r="D183" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E183">
-        <v>592</v>
+        <v>961.8</v>
       </c>
       <c r="F183">
         <v>4</v>
@@ -4557,19 +4562,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="B184">
-        <v>1099562805625</v>
+        <v>1099574376616</v>
       </c>
       <c r="C184" s="2">
-        <v>44810</v>
+        <v>44919</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E184">
-        <v>544</v>
+        <v>1309</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -4577,19 +4582,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="B185">
-        <v>1099574317947</v>
+        <v>1099555980532</v>
       </c>
       <c r="C185" s="2">
-        <v>44826</v>
+        <v>44798</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E185">
-        <v>314.3</v>
+        <v>1521</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -4597,19 +4602,19 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="B186">
-        <v>1099555575945</v>
+        <v>1099576077012</v>
       </c>
       <c r="C186" s="2">
-        <v>44890</v>
+        <v>44819</v>
       </c>
       <c r="D186" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E186">
-        <v>329</v>
+        <v>389.1</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -4617,19 +4622,19 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="B187">
-        <v>1099555575945</v>
+        <v>1099574317947</v>
       </c>
       <c r="C187" s="2">
-        <v>44837</v>
+        <v>44882</v>
       </c>
       <c r="D187" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E187">
-        <v>314</v>
+        <v>657.6</v>
       </c>
       <c r="F187">
         <v>4</v>
@@ -4637,19 +4642,19 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B188">
-        <v>1099559989844</v>
+        <v>1099556180299</v>
       </c>
       <c r="C188" s="2">
-        <v>44911</v>
+        <v>44770</v>
       </c>
       <c r="D188" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E188">
-        <v>455.5</v>
+        <v>347</v>
       </c>
       <c r="F188">
         <v>4</v>
@@ -4657,19 +4662,19 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="B189">
-        <v>1099574317947</v>
+        <v>1099556220528</v>
       </c>
       <c r="C189" s="2">
-        <v>44848</v>
+        <v>44815</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E189">
-        <v>366.65</v>
+        <v>375</v>
       </c>
       <c r="F189">
         <v>4</v>
@@ -4677,19 +4682,19 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B190">
-        <v>1099574317947</v>
+        <v>1099574751085</v>
       </c>
       <c r="C190" s="2">
-        <v>44849</v>
+        <v>44787</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E190">
-        <v>948</v>
+        <v>1800</v>
       </c>
       <c r="F190">
         <v>4</v>
@@ -4697,19 +4702,19 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B191">
         <v>1099574317947</v>
       </c>
       <c r="C191" s="2">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>537.79999999999995</v>
+        <v>724.5</v>
       </c>
       <c r="F191">
         <v>4</v>
@@ -4717,19 +4722,19 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B192">
         <v>1099574317947</v>
       </c>
       <c r="C192" s="2">
-        <v>44851</v>
+        <v>44850</v>
       </c>
       <c r="D192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>724.5</v>
+        <v>537.8</v>
       </c>
       <c r="F192">
         <v>4</v>
@@ -4737,19 +4742,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>322</v>
+        <v>34</v>
       </c>
       <c r="B193">
-        <v>1099579176286</v>
+        <v>1099555944907</v>
       </c>
       <c r="C193" s="2">
-        <v>44868</v>
+        <v>44801</v>
       </c>
       <c r="D193" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E193">
-        <v>426</v>
+        <v>429.8</v>
       </c>
       <c r="F193">
         <v>4</v>
@@ -4757,19 +4762,19 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B194">
-        <v>1099575689308</v>
+        <v>1099574317947</v>
       </c>
       <c r="C194" s="2">
-        <v>44802</v>
+        <v>44849</v>
       </c>
       <c r="D194" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>758.3</v>
+        <v>948</v>
       </c>
       <c r="F194">
         <v>4</v>
@@ -4777,19 +4782,19 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B195">
-        <v>1099575907546</v>
+        <v>1099574317947</v>
       </c>
       <c r="C195" s="2">
-        <v>44822</v>
+        <v>44848</v>
       </c>
       <c r="D195" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>1350</v>
+        <v>366.65</v>
       </c>
       <c r="F195">
         <v>4</v>
@@ -4797,19 +4802,19 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B196">
-        <v>1099554530015</v>
+        <v>1099555980532</v>
       </c>
       <c r="C196" s="2">
-        <v>44920</v>
+        <v>44749</v>
       </c>
       <c r="D196" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E196">
-        <v>390.4</v>
+        <v>987</v>
       </c>
       <c r="F196">
         <v>4</v>
@@ -4817,19 +4822,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B197">
-        <v>1099577321406</v>
+        <v>1099577169726</v>
       </c>
       <c r="C197" s="2">
-        <v>44847</v>
+        <v>44839</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E197">
-        <v>452.2</v>
+        <v>1038</v>
       </c>
       <c r="F197">
         <v>4</v>
@@ -4837,19 +4842,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B198">
-        <v>1099577321406</v>
+        <v>1099576077012</v>
       </c>
       <c r="C198" s="2">
-        <v>44865</v>
+        <v>44845</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E198">
-        <v>260.8</v>
+        <v>590</v>
       </c>
       <c r="F198">
         <v>4</v>
@@ -4857,19 +4862,19 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="B199">
-        <v>1099554825144</v>
+        <v>1099577437494</v>
       </c>
       <c r="C199" s="2">
-        <v>44764</v>
+        <v>44895</v>
       </c>
       <c r="D199" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E199">
-        <v>3213.9</v>
+        <v>629.2</v>
       </c>
       <c r="F199">
         <v>4</v>
@@ -4877,19 +4882,19 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B200">
-        <v>1099579041887</v>
+        <v>1099577929733</v>
       </c>
       <c r="C200" s="2">
-        <v>44911</v>
+        <v>44834</v>
       </c>
       <c r="D200" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E200">
-        <v>474.5</v>
+        <v>582.6</v>
       </c>
       <c r="F200">
         <v>4</v>
@@ -4897,19 +4902,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="B201">
-        <v>1099577321406</v>
+        <v>1099554825144</v>
       </c>
       <c r="C201" s="2">
-        <v>44879</v>
+        <v>44795</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E201">
-        <v>426.2</v>
+        <v>1129.5</v>
       </c>
       <c r="F201">
         <v>4</v>
@@ -4917,19 +4922,19 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B202">
-        <v>1099560840268</v>
+        <v>1099554825144</v>
       </c>
       <c r="C202" s="2">
-        <v>44715</v>
+        <v>44769</v>
       </c>
       <c r="D202" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>844.3</v>
+        <v>1096.6</v>
       </c>
       <c r="F202">
         <v>4</v>
@@ -4937,19 +4942,19 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B203">
-        <v>1099577321406</v>
+        <v>1099579041887</v>
       </c>
       <c r="C203" s="2">
         <v>44911</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E203">
-        <v>724</v>
+        <v>474.5</v>
       </c>
       <c r="F203">
         <v>4</v>
@@ -4957,19 +4962,19 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B204">
         <v>1099554825144</v>
       </c>
       <c r="C204" s="2">
-        <v>44756</v>
+        <v>44764</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E204">
-        <v>801</v>
+        <v>3213.9</v>
       </c>
       <c r="F204">
         <v>4</v>
@@ -4977,19 +4982,19 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="B205">
-        <v>1099554314711</v>
+        <v>1099579176286</v>
       </c>
       <c r="C205" s="2">
-        <v>44770</v>
+        <v>44868</v>
       </c>
       <c r="D205" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E205">
-        <v>661</v>
+        <v>426</v>
       </c>
       <c r="F205">
         <v>4</v>
@@ -4997,19 +5002,19 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="B206">
-        <v>1099561979340</v>
+        <v>1099579224466</v>
       </c>
       <c r="C206" s="2">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="D206" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E206">
-        <v>580</v>
+        <v>497.4</v>
       </c>
       <c r="F206">
         <v>4</v>
@@ -5017,19 +5022,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="B207">
-        <v>1099560467745</v>
+        <v>1099579313477</v>
       </c>
       <c r="C207" s="2">
-        <v>44740</v>
+        <v>44885</v>
       </c>
       <c r="D207" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E207">
-        <v>315.89999999999998</v>
+        <v>282</v>
       </c>
       <c r="F207">
         <v>4</v>
@@ -5037,19 +5042,19 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B208">
-        <v>1099577437494</v>
+        <v>1099579590041</v>
       </c>
       <c r="C208" s="2">
-        <v>44887</v>
+        <v>44871</v>
       </c>
       <c r="D208" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E208">
-        <v>345.5</v>
+        <v>902</v>
       </c>
       <c r="F208">
         <v>4</v>
@@ -5057,19 +5062,19 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B209">
-        <v>1099577437494</v>
+        <v>1099579712196</v>
       </c>
       <c r="C209" s="2">
-        <v>44891</v>
+        <v>44930</v>
       </c>
       <c r="D209" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E209">
-        <v>1497.6</v>
+        <v>221.7</v>
       </c>
       <c r="F209">
         <v>4</v>
@@ -5077,19 +5082,19 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B210">
-        <v>1099577437494</v>
+        <v>1099579987675</v>
       </c>
       <c r="C210" s="2">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="D210" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E210">
-        <v>629.20000000000005</v>
+        <v>427.2</v>
       </c>
       <c r="F210">
         <v>4</v>
@@ -5097,19 +5102,19 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="B211">
-        <v>1099577894148</v>
+        <v>1099554825144</v>
       </c>
       <c r="C211" s="2">
-        <v>44878</v>
+        <v>44756</v>
       </c>
       <c r="D211" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E211">
-        <v>2015</v>
+        <v>801</v>
       </c>
       <c r="F211">
         <v>4</v>
@@ -5117,19 +5122,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="B212">
-        <v>1099577929733</v>
+        <v>1099554530015</v>
       </c>
       <c r="C212" s="2">
-        <v>44834</v>
+        <v>44920</v>
       </c>
       <c r="D212" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E212">
-        <v>582.6</v>
+        <v>390.4</v>
       </c>
       <c r="F212">
         <v>4</v>
@@ -5137,19 +5142,19 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B213">
-        <v>1099553839999</v>
+        <v>1099554314711</v>
       </c>
       <c r="C213" s="2">
-        <v>44761</v>
+        <v>44770</v>
       </c>
       <c r="D213" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E213">
-        <v>805</v>
+        <v>661</v>
       </c>
       <c r="F213">
         <v>4</v>
@@ -5157,19 +5162,19 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B214">
-        <v>1099560700049</v>
+        <v>1099553839999</v>
       </c>
       <c r="C214" s="2">
-        <v>44731</v>
+        <v>44761</v>
       </c>
       <c r="D214" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E214">
-        <v>338</v>
+        <v>805</v>
       </c>
       <c r="F214">
         <v>4</v>
@@ -5177,19 +5182,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B215">
-        <v>1099577305745</v>
+        <v>1099581306640</v>
       </c>
       <c r="C215" s="2">
-        <v>44839</v>
+        <v>44916</v>
       </c>
       <c r="D215" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E215">
-        <v>667</v>
+        <v>592</v>
       </c>
       <c r="F215">
         <v>4</v>
@@ -5197,19 +5202,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>1099553611188</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44861</v>
+      </c>
+      <c r="D216" t="s">
         <v>96</v>
       </c>
-      <c r="B216">
-        <v>1099562276464</v>
-      </c>
-      <c r="C216" s="2">
-        <v>44719</v>
-      </c>
-      <c r="D216" t="s">
-        <v>92</v>
-      </c>
       <c r="E216">
-        <v>555</v>
+        <v>908.9</v>
       </c>
       <c r="F216">
         <v>4</v>
@@ -5217,19 +5222,19 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B217">
-        <v>1099562805625</v>
+        <v>1099553611188</v>
       </c>
       <c r="C217" s="2">
-        <v>44717</v>
+        <v>44776</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E217">
-        <v>466.1</v>
+        <v>483.1</v>
       </c>
       <c r="F217">
         <v>4</v>
@@ -5237,19 +5242,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="B218">
-        <v>1099576404221</v>
+        <v>1099581608434</v>
       </c>
       <c r="C218" s="2">
-        <v>44824</v>
+        <v>44931</v>
       </c>
       <c r="D218" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="E218">
-        <v>560</v>
+        <v>1184.6</v>
       </c>
       <c r="F218">
         <v>4</v>
@@ -5257,19 +5262,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>279</v>
+        <v>4</v>
       </c>
       <c r="B219">
-        <v>1099575907546</v>
+        <v>1099552769561</v>
       </c>
       <c r="C219" s="2">
-        <v>44835</v>
+        <v>44775</v>
       </c>
       <c r="D219" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E219">
-        <v>453.1</v>
+        <v>564</v>
       </c>
       <c r="F219">
         <v>4</v>
@@ -5277,19 +5282,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="B220">
-        <v>1099575907546</v>
+        <v>1099552694779</v>
       </c>
       <c r="C220" s="2">
-        <v>44857</v>
+        <v>44835</v>
       </c>
       <c r="D220" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E220">
-        <v>887.5</v>
+        <v>1217</v>
       </c>
       <c r="F220">
         <v>4</v>
@@ -5297,19 +5302,19 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="B221">
-        <v>1099575907546</v>
+        <v>1099577894148</v>
       </c>
       <c r="C221" s="2">
-        <v>44860</v>
+        <v>44878</v>
       </c>
       <c r="D221" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E221">
-        <v>1537.6</v>
+        <v>2015</v>
       </c>
       <c r="F221">
         <v>4</v>
@@ -5317,19 +5322,19 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B222">
-        <v>1099575907546</v>
+        <v>1099577437494</v>
       </c>
       <c r="C222" s="2">
-        <v>44872</v>
+        <v>44891</v>
       </c>
       <c r="D222" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E222">
-        <v>764.4</v>
+        <v>1497.6</v>
       </c>
       <c r="F222">
         <v>4</v>
@@ -5337,19 +5342,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B223">
-        <v>1099575940341</v>
+        <v>1099576235196</v>
       </c>
       <c r="C223" s="2">
-        <v>44812</v>
+        <v>44814</v>
       </c>
       <c r="D223" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E223">
-        <v>640</v>
+        <v>1155.4</v>
       </c>
       <c r="F223">
         <v>4</v>
@@ -5357,19 +5362,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="B224">
-        <v>1099562805625</v>
+        <v>1099577437494</v>
       </c>
       <c r="C224" s="2">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E224">
-        <v>642.1</v>
+        <v>345.5</v>
       </c>
       <c r="F224">
         <v>4</v>
@@ -5377,19 +5382,19 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B225">
-        <v>1099576077012</v>
+        <v>1099576404221</v>
       </c>
       <c r="C225" s="2">
-        <v>44845</v>
+        <v>44824</v>
       </c>
       <c r="D225" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E225">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F225">
         <v>4</v>
@@ -5397,19 +5402,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B226">
-        <v>1099576235196</v>
+        <v>1099576586877</v>
       </c>
       <c r="C226" s="2">
-        <v>44814</v>
+        <v>44830</v>
       </c>
       <c r="D226" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E226">
-        <v>1155.4000000000001</v>
+        <v>293</v>
       </c>
       <c r="F226">
         <v>4</v>
@@ -5417,19 +5422,19 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B227">
-        <v>1099576586877</v>
+        <v>1099576664620</v>
       </c>
       <c r="C227" s="2">
-        <v>44830</v>
+        <v>44833</v>
       </c>
       <c r="D227" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E227">
-        <v>293</v>
+        <v>317.1</v>
       </c>
       <c r="F227">
         <v>4</v>
@@ -5437,19 +5442,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="B228">
-        <v>1099562279122</v>
+        <v>1099576986743</v>
       </c>
       <c r="C228" s="2">
-        <v>44899</v>
+        <v>44880</v>
       </c>
       <c r="D228" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E228">
-        <v>475</v>
+        <v>486.6</v>
       </c>
       <c r="F228">
         <v>4</v>
@@ -5457,19 +5462,19 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B229">
-        <v>1099576664620</v>
+        <v>1099577097419</v>
       </c>
       <c r="C229" s="2">
-        <v>44833</v>
+        <v>44835</v>
       </c>
       <c r="D229" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E229">
-        <v>317.10000000000002</v>
+        <v>303</v>
       </c>
       <c r="F229">
         <v>4</v>
@@ -5477,19 +5482,19 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>290</v>
+        <v>49</v>
       </c>
       <c r="B230">
-        <v>1099576986743</v>
+        <v>1099556693225</v>
       </c>
       <c r="C230" s="2">
-        <v>44880</v>
+        <v>44874</v>
       </c>
       <c r="D230" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E230">
-        <v>486.6</v>
+        <v>3681</v>
       </c>
       <c r="F230">
         <v>4</v>
@@ -5497,19 +5502,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B231">
-        <v>1099577097419</v>
+        <v>1099577269025</v>
       </c>
       <c r="C231" s="2">
-        <v>44835</v>
+        <v>44838</v>
       </c>
       <c r="D231" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E231">
-        <v>303</v>
+        <v>439.2</v>
       </c>
       <c r="F231">
         <v>4</v>
@@ -5517,19 +5522,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="B232">
-        <v>1099577169726</v>
+        <v>1099555905448</v>
       </c>
       <c r="C232" s="2">
-        <v>44839</v>
+        <v>44748</v>
       </c>
       <c r="D232" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E232">
-        <v>1038</v>
+        <v>638</v>
       </c>
       <c r="F232">
         <v>4</v>
@@ -5537,19 +5542,19 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="B233">
-        <v>1099577269025</v>
+        <v>1099555772968</v>
       </c>
       <c r="C233" s="2">
-        <v>44838</v>
+        <v>44890</v>
       </c>
       <c r="D233" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="E233">
-        <v>439.2</v>
+        <v>382</v>
       </c>
       <c r="F233">
         <v>4</v>
@@ -5557,19 +5562,19 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B234">
-        <v>1099562456259</v>
+        <v>1099555769765</v>
       </c>
       <c r="C234" s="2">
-        <v>44807</v>
+        <v>44740</v>
       </c>
       <c r="D234" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E234">
-        <v>326.89999999999998</v>
+        <v>840</v>
       </c>
       <c r="F234">
         <v>4</v>
@@ -5577,19 +5582,19 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B235">
-        <v>1099562446655</v>
+        <v>1099555647222</v>
       </c>
       <c r="C235" s="2">
-        <v>44897</v>
+        <v>44788</v>
       </c>
       <c r="D235" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E235">
-        <v>511.4</v>
+        <v>242</v>
       </c>
       <c r="F235">
         <v>4</v>
@@ -5597,19 +5602,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B236">
-        <v>1099554825144</v>
+        <v>1099555575945</v>
       </c>
       <c r="C236" s="2">
-        <v>44769</v>
+        <v>44890</v>
       </c>
       <c r="D236" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>1096.5999999999999</v>
+        <v>329</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -5617,19 +5622,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B237">
-        <v>1099576077012</v>
+        <v>1099577305745</v>
       </c>
       <c r="C237" s="2">
-        <v>44819</v>
+        <v>44839</v>
       </c>
       <c r="D237" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E237">
-        <v>389.1</v>
+        <v>667</v>
       </c>
       <c r="F237">
         <v>4</v>
@@ -5637,19 +5642,19 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="B238">
-        <v>1099565969450</v>
+        <v>1099577321406</v>
       </c>
       <c r="C238" s="2">
-        <v>44886</v>
+        <v>44847</v>
       </c>
       <c r="D238" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>765.6</v>
+        <v>452.2</v>
       </c>
       <c r="F238">
         <v>4</v>
@@ -5657,19 +5662,19 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="B239">
-        <v>1099574108402</v>
+        <v>1099577321406</v>
       </c>
       <c r="C239" s="2">
-        <v>44797</v>
+        <v>44865</v>
       </c>
       <c r="D239" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E239">
-        <v>526.9</v>
+        <v>260.8</v>
       </c>
       <c r="F239">
         <v>4</v>
@@ -5677,19 +5682,19 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="B240">
-        <v>1099569226147</v>
+        <v>1099555575945</v>
       </c>
       <c r="C240" s="2">
-        <v>44809</v>
+        <v>44837</v>
       </c>
       <c r="D240" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>299.39999999999998</v>
+        <v>314</v>
       </c>
       <c r="F240">
         <v>4</v>
@@ -5697,19 +5702,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B241">
-        <v>1099558451336</v>
+        <v>1099555540823</v>
       </c>
       <c r="C241" s="2">
-        <v>44801</v>
+        <v>44819</v>
       </c>
       <c r="D241" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E241">
-        <v>329.6</v>
+        <v>300</v>
       </c>
       <c r="F241">
         <v>4</v>
@@ -5717,19 +5722,19 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="B242">
-        <v>1099558423741</v>
+        <v>1099577321406</v>
       </c>
       <c r="C242" s="2">
-        <v>44847</v>
+        <v>44879</v>
       </c>
       <c r="D242" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E242">
-        <v>298</v>
+        <v>426.2</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -5737,19 +5742,19 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="B243">
-        <v>1099558172264</v>
+        <v>1099577321406</v>
       </c>
       <c r="C243" s="2">
-        <v>44823</v>
+        <v>44911</v>
       </c>
       <c r="D243" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="E243">
-        <v>444</v>
+        <v>724</v>
       </c>
       <c r="F243">
         <v>4</v>
@@ -5757,19 +5762,19 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B244">
-        <v>1099558040057</v>
+        <v>1099555471358</v>
       </c>
       <c r="C244" s="2">
-        <v>44895</v>
+        <v>44745</v>
       </c>
       <c r="D244" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E244">
-        <v>606</v>
+        <v>785.12</v>
       </c>
       <c r="F244">
         <v>4</v>
@@ -5777,19 +5782,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B245">
-        <v>1099557917630</v>
+        <v>1099555313901</v>
       </c>
       <c r="C245" s="2">
-        <v>44831</v>
+        <v>44784</v>
       </c>
       <c r="D245" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E245">
-        <v>268</v>
+        <v>2618</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -5797,19 +5802,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="B246">
-        <v>1099557825812</v>
+        <v>1099574317947</v>
       </c>
       <c r="C246" s="2">
-        <v>44762</v>
+        <v>44793</v>
       </c>
       <c r="D246" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E246">
-        <v>430</v>
+        <v>202.2</v>
       </c>
       <c r="F246">
         <v>4</v>
@@ -5817,19 +5822,19 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="B247">
-        <v>1099557809802</v>
+        <v>1099564406955</v>
       </c>
       <c r="C247" s="2">
-        <v>44806</v>
+        <v>44856</v>
       </c>
       <c r="D247" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E247">
-        <v>616</v>
+        <v>269</v>
       </c>
       <c r="F247">
         <v>4</v>
@@ -5837,19 +5842,19 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="B248">
-        <v>1099551677718</v>
+        <v>1099574317947</v>
       </c>
       <c r="C248" s="2">
-        <v>44795</v>
+        <v>44782</v>
       </c>
       <c r="D248" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="E248">
-        <v>854</v>
+        <v>816.63</v>
       </c>
       <c r="F248">
         <v>4</v>
@@ -5857,19 +5862,19 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B249">
-        <v>1099557680664</v>
+        <v>1099568579120</v>
       </c>
       <c r="C249" s="2">
-        <v>44723</v>
+        <v>44794</v>
       </c>
       <c r="D249" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="E249">
-        <v>282.60000000000002</v>
+        <v>412.7</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -5877,19 +5882,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B250">
-        <v>1099557397849</v>
+        <v>1099562805625</v>
       </c>
       <c r="C250" s="2">
-        <v>44808</v>
+        <v>44834</v>
       </c>
       <c r="D250" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E250">
-        <v>1214</v>
+        <v>642.1</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -5897,19 +5902,19 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B251">
-        <v>1099568837752</v>
+        <v>1099568817249</v>
       </c>
       <c r="C251" s="2">
-        <v>44719</v>
+        <v>44714</v>
       </c>
       <c r="D251" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E251">
-        <v>300</v>
+        <v>1068</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -5917,19 +5922,19 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B252">
-        <v>1099568837752</v>
+        <v>1099568818895</v>
       </c>
       <c r="C252" s="2">
-        <v>44832</v>
+        <v>44794</v>
       </c>
       <c r="D252" t="s">
         <v>117</v>
       </c>
       <c r="E252">
-        <v>311</v>
+        <v>428</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -5937,19 +5942,19 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="B253">
-        <v>1099568906755</v>
+        <v>1099562805625</v>
       </c>
       <c r="C253" s="2">
-        <v>44721</v>
+        <v>44810</v>
       </c>
       <c r="D253" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E253">
-        <v>1292.5</v>
+        <v>544</v>
       </c>
       <c r="F253">
         <v>4</v>
@@ -5957,19 +5962,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B254">
-        <v>1099557338823</v>
+        <v>1099562805625</v>
       </c>
       <c r="C254" s="2">
         <v>44795</v>
       </c>
       <c r="D254" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>917</v>
+        <v>1113.2</v>
       </c>
       <c r="F254">
         <v>4</v>
@@ -5977,19 +5982,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="B255">
-        <v>1099568924431</v>
+        <v>1099562805625</v>
       </c>
       <c r="C255" s="2">
-        <v>44719</v>
+        <v>44717</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E255">
-        <v>632.79999999999995</v>
+        <v>466.1</v>
       </c>
       <c r="F255">
         <v>4</v>
@@ -5997,19 +6002,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B256">
-        <v>1099557311354</v>
+        <v>1099562456259</v>
       </c>
       <c r="C256" s="2">
-        <v>44901</v>
+        <v>44807</v>
       </c>
       <c r="D256" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E256">
-        <v>372</v>
+        <v>326.9</v>
       </c>
       <c r="F256">
         <v>4</v>
@@ -6017,19 +6022,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B257">
-        <v>1099557211839</v>
+        <v>1099551677718</v>
       </c>
       <c r="C257" s="2">
-        <v>44783</v>
+        <v>44795</v>
       </c>
       <c r="D257" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E257">
-        <v>991.1</v>
+        <v>854</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -6037,19 +6042,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="B258">
-        <v>1099557211839</v>
+        <v>1099568837752</v>
       </c>
       <c r="C258" s="2">
-        <v>44776</v>
+        <v>44719</v>
       </c>
       <c r="D258" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E258">
-        <v>482.5</v>
+        <v>300</v>
       </c>
       <c r="F258">
         <v>4</v>
@@ -6057,19 +6062,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="B259">
-        <v>1099564705705</v>
+        <v>1099568837752</v>
       </c>
       <c r="C259" s="2">
-        <v>44733</v>
+        <v>44832</v>
       </c>
       <c r="D259" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E259">
-        <v>356.5</v>
+        <v>311</v>
       </c>
       <c r="F259">
         <v>4</v>
@@ -6077,19 +6082,19 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B260">
-        <v>1099568924431</v>
+        <v>1099568906755</v>
       </c>
       <c r="C260" s="2">
-        <v>44728</v>
+        <v>44721</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E260">
-        <v>547</v>
+        <v>1292.5</v>
       </c>
       <c r="F260">
         <v>4</v>
@@ -6097,19 +6102,19 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B261">
-        <v>1099559258552</v>
+        <v>1099562446655</v>
       </c>
       <c r="C261" s="2">
-        <v>44758</v>
+        <v>44897</v>
       </c>
       <c r="D261" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E261">
-        <v>1087</v>
+        <v>511.4</v>
       </c>
       <c r="F261">
         <v>4</v>
@@ -6117,19 +6122,19 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B262">
-        <v>1099568818895</v>
+        <v>1099568924431</v>
       </c>
       <c r="C262" s="2">
-        <v>44794</v>
+        <v>44719</v>
       </c>
       <c r="D262" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E262">
-        <v>428</v>
+        <v>632.8</v>
       </c>
       <c r="F262">
         <v>4</v>
@@ -6137,19 +6142,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B263">
-        <v>1099568817249</v>
+        <v>1099562279122</v>
       </c>
       <c r="C263" s="2">
-        <v>44714</v>
+        <v>44899</v>
       </c>
       <c r="D263" t="s">
         <v>123</v>
       </c>
       <c r="E263">
-        <v>1068</v>
+        <v>475</v>
       </c>
       <c r="F263">
         <v>4</v>
@@ -6157,19 +6162,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B264">
-        <v>1099564705705</v>
+        <v>1099562276464</v>
       </c>
       <c r="C264" s="2">
-        <v>44880</v>
+        <v>44719</v>
       </c>
       <c r="D264" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E264">
-        <v>1785.6</v>
+        <v>555</v>
       </c>
       <c r="F264">
         <v>4</v>
@@ -6177,19 +6182,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B265">
-        <v>1099568379493</v>
+        <v>1099561979340</v>
       </c>
       <c r="C265" s="2">
-        <v>44723</v>
+        <v>44855</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="E265">
-        <v>969.3</v>
+        <v>580</v>
       </c>
       <c r="F265">
         <v>4</v>
@@ -6197,19 +6202,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B266">
-        <v>1099566135099</v>
+        <v>1099568924431</v>
       </c>
       <c r="C266" s="2">
-        <v>44758</v>
+        <v>44728</v>
       </c>
       <c r="D266" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="E266">
-        <v>387.5</v>
+        <v>547</v>
       </c>
       <c r="F266">
         <v>4</v>
@@ -6217,19 +6222,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B267">
-        <v>1099566313497</v>
+        <v>1099560840268</v>
       </c>
       <c r="C267" s="2">
-        <v>44828</v>
+        <v>44715</v>
       </c>
       <c r="D267" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E267">
-        <v>439</v>
+        <v>844.3</v>
       </c>
       <c r="F267">
         <v>4</v>
@@ -6237,19 +6242,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B268">
-        <v>1099566452423</v>
+        <v>1099568949889</v>
       </c>
       <c r="C268" s="2">
-        <v>44825</v>
+        <v>44727</v>
       </c>
       <c r="D268" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E268">
-        <v>575.5</v>
+        <v>604.1</v>
       </c>
       <c r="F268">
         <v>4</v>
@@ -6257,19 +6262,19 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="B269">
-        <v>1099566949877</v>
+        <v>1099569226147</v>
       </c>
       <c r="C269" s="2">
-        <v>44725</v>
+        <v>44809</v>
       </c>
       <c r="D269" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E269">
-        <v>200.1</v>
+        <v>299.4</v>
       </c>
       <c r="F269">
         <v>4</v>
@@ -6277,19 +6282,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="B270">
-        <v>1099567248106</v>
+        <v>1099569544746</v>
       </c>
       <c r="C270" s="2">
-        <v>44800</v>
+        <v>44723</v>
       </c>
       <c r="D270" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E270">
-        <v>351</v>
+        <v>583.3</v>
       </c>
       <c r="F270">
         <v>4</v>
@@ -6297,19 +6302,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B271">
-        <v>1099567584257</v>
+        <v>1099568661524</v>
       </c>
       <c r="C271" s="2">
-        <v>44848</v>
+        <v>44718</v>
       </c>
       <c r="D271" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E271">
-        <v>553.1</v>
+        <v>616.5</v>
       </c>
       <c r="F271">
         <v>4</v>
@@ -6317,19 +6322,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B272">
-        <v>1099567584675</v>
+        <v>1099568579120</v>
       </c>
       <c r="C272" s="2">
-        <v>44750</v>
+        <v>44768</v>
       </c>
       <c r="D272" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E272">
-        <v>1790.8</v>
+        <v>698.4</v>
       </c>
       <c r="F272">
         <v>4</v>
@@ -6337,19 +6342,19 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B273">
-        <v>1099568379493</v>
+        <v>1099556729470</v>
       </c>
       <c r="C273" s="2">
-        <v>44714</v>
+        <v>44757</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="E273">
-        <v>350.8</v>
+        <v>741.01</v>
       </c>
       <c r="F273">
         <v>4</v>
@@ -6357,19 +6362,19 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B274">
-        <v>1099568379493</v>
+        <v>1099568579120</v>
       </c>
       <c r="C274" s="2">
-        <v>44721</v>
+        <v>44727</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E274">
-        <v>642.59999999999991</v>
+        <v>738</v>
       </c>
       <c r="F274">
         <v>4</v>
@@ -6377,19 +6382,19 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B275">
-        <v>1099558862851</v>
+        <v>1099563820543</v>
       </c>
       <c r="C275" s="2">
-        <v>44857</v>
+        <v>44865</v>
       </c>
       <c r="D275" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E275">
-        <v>441</v>
+        <v>933.4</v>
       </c>
       <c r="F275">
         <v>4</v>
@@ -6397,19 +6402,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B276">
-        <v>1099568661524</v>
+        <v>1099564705705</v>
       </c>
       <c r="C276" s="2">
-        <v>44718</v>
+        <v>44880</v>
       </c>
       <c r="D276" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="E276">
-        <v>616.5</v>
+        <v>1785.6</v>
       </c>
       <c r="F276">
         <v>4</v>
@@ -6417,19 +6422,19 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B277">
-        <v>1099568379493</v>
+        <v>1099564705705</v>
       </c>
       <c r="C277" s="2">
-        <v>44742</v>
+        <v>44889</v>
       </c>
       <c r="D277" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E277">
-        <v>1280.7</v>
+        <v>1294</v>
       </c>
       <c r="F277">
         <v>4</v>
@@ -6437,7 +6442,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B278">
         <v>1099565253323</v>
@@ -6457,19 +6462,19 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B279">
-        <v>1099568379493</v>
+        <v>1099565260160</v>
       </c>
       <c r="C279" s="2">
-        <v>44748</v>
+        <v>44872</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="E279">
-        <v>884.3</v>
+        <v>365</v>
       </c>
       <c r="F279">
         <v>4</v>
@@ -6477,19 +6482,19 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B280">
-        <v>1099568379493</v>
+        <v>1099565969450</v>
       </c>
       <c r="C280" s="2">
-        <v>44752</v>
+        <v>44886</v>
       </c>
       <c r="D280" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E280">
-        <v>508</v>
+        <v>765.6</v>
       </c>
       <c r="F280">
         <v>4</v>
@@ -6497,19 +6502,19 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B281">
-        <v>1099568579120</v>
+        <v>1099566135099</v>
       </c>
       <c r="C281" s="2">
-        <v>44714</v>
+        <v>44758</v>
       </c>
       <c r="D281" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="E281">
-        <v>364</v>
+        <v>387.5</v>
       </c>
       <c r="F281">
         <v>4</v>
@@ -6517,19 +6522,19 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B282">
-        <v>1099568579120</v>
+        <v>1099566313497</v>
       </c>
       <c r="C282" s="2">
-        <v>44727</v>
+        <v>44828</v>
       </c>
       <c r="D282" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E282">
-        <v>738</v>
+        <v>439</v>
       </c>
       <c r="F282">
         <v>4</v>
@@ -6537,19 +6542,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B283">
-        <v>1099564705705</v>
+        <v>1099566452423</v>
       </c>
       <c r="C283" s="2">
-        <v>44889</v>
+        <v>44825</v>
       </c>
       <c r="D283" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E283">
-        <v>1294</v>
+        <v>575.5</v>
       </c>
       <c r="F283">
         <v>4</v>
@@ -6557,19 +6562,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B284">
-        <v>1099568579120</v>
+        <v>1099566949877</v>
       </c>
       <c r="C284" s="2">
-        <v>44768</v>
+        <v>44725</v>
       </c>
       <c r="D284" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="E284">
-        <v>698.4</v>
+        <v>200.1</v>
       </c>
       <c r="F284">
         <v>4</v>
@@ -6577,19 +6582,19 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B285">
-        <v>1099568579120</v>
+        <v>1099567248106</v>
       </c>
       <c r="C285" s="2">
-        <v>44794</v>
+        <v>44800</v>
       </c>
       <c r="D285" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="E285">
-        <v>412.7</v>
+        <v>351</v>
       </c>
       <c r="F285">
         <v>4</v>
@@ -6597,19 +6602,19 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="B286">
-        <v>1099568949889</v>
+        <v>1099567584257</v>
       </c>
       <c r="C286" s="2">
-        <v>44727</v>
+        <v>44848</v>
       </c>
       <c r="D286" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E286">
-        <v>604.1</v>
+        <v>553.1</v>
       </c>
       <c r="F286">
         <v>4</v>
@@ -6617,19 +6622,19 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B287">
-        <v>1099569544746</v>
+        <v>1099567584675</v>
       </c>
       <c r="C287" s="2">
-        <v>44723</v>
+        <v>44750</v>
       </c>
       <c r="D287" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E287">
-        <v>583.29999999999995</v>
+        <v>1790.8</v>
       </c>
       <c r="F287">
         <v>4</v>
@@ -6637,19 +6642,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B288">
-        <v>1099565260160</v>
+        <v>1099568379493</v>
       </c>
       <c r="C288" s="2">
-        <v>44872</v>
+        <v>44714</v>
       </c>
       <c r="D288" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="E288">
-        <v>365</v>
+        <v>350.8</v>
       </c>
       <c r="F288">
         <v>4</v>
@@ -6657,19 +6662,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B289">
-        <v>1099570216807</v>
+        <v>1099568379493</v>
       </c>
       <c r="C289" s="2">
-        <v>44838</v>
+        <v>44721</v>
       </c>
       <c r="D289" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="E289">
-        <v>555</v>
+        <v>642.5999999999999</v>
       </c>
       <c r="F289">
         <v>4</v>
@@ -6677,19 +6682,19 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B290">
-        <v>1099559989844</v>
+        <v>1099568379493</v>
       </c>
       <c r="C290" s="2">
-        <v>44820</v>
+        <v>44723</v>
       </c>
       <c r="D290" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E290">
-        <v>3481.3</v>
+        <v>969.3</v>
       </c>
       <c r="F290">
         <v>4</v>
@@ -6697,19 +6702,19 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="B291">
-        <v>1099556220528</v>
+        <v>1099568379493</v>
       </c>
       <c r="C291" s="2">
-        <v>44815</v>
+        <v>44742</v>
       </c>
       <c r="D291" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>375</v>
+        <v>1280.7</v>
       </c>
       <c r="F291">
         <v>4</v>
@@ -6717,19 +6722,19 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="B292">
-        <v>1099556180299</v>
+        <v>1099562805625</v>
       </c>
       <c r="C292" s="2">
-        <v>44770</v>
+        <v>44844</v>
       </c>
       <c r="D292" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="E292">
-        <v>347</v>
+        <v>1868.8</v>
       </c>
       <c r="F292">
         <v>4</v>
@@ -6737,19 +6742,19 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B293">
-        <v>1099556180299</v>
+        <v>1099568379493</v>
       </c>
       <c r="C293" s="2">
-        <v>44739</v>
+        <v>44748</v>
       </c>
       <c r="D293" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="E293">
-        <v>491</v>
+        <v>884.3</v>
       </c>
       <c r="F293">
         <v>4</v>
@@ -6757,19 +6762,19 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="B294">
-        <v>1099556180299</v>
+        <v>1099568379493</v>
       </c>
       <c r="C294" s="2">
-        <v>44726</v>
+        <v>44752</v>
       </c>
       <c r="D294" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>588</v>
+        <v>508</v>
       </c>
       <c r="F294">
         <v>4</v>
@@ -6777,19 +6782,19 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B295">
-        <v>1099556168324</v>
+        <v>1099568579120</v>
       </c>
       <c r="C295" s="2">
-        <v>44791</v>
+        <v>44714</v>
       </c>
       <c r="D295" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E295">
-        <v>467.5</v>
+        <v>364</v>
       </c>
       <c r="F295">
         <v>4</v>
@@ -6797,19 +6802,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="B296">
-        <v>1099556157998</v>
+        <v>1099570216807</v>
       </c>
       <c r="C296" s="2">
-        <v>44923</v>
+        <v>44838</v>
       </c>
       <c r="D296" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E296">
-        <v>232.8</v>
+        <v>555</v>
       </c>
       <c r="F296">
         <v>4</v>
@@ -6817,19 +6822,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="B297">
-        <v>1099556018999</v>
+        <v>1099570222899</v>
       </c>
       <c r="C297" s="2">
-        <v>44840</v>
+        <v>44752</v>
       </c>
       <c r="D297" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E297">
-        <v>1060</v>
+        <v>401.1</v>
       </c>
       <c r="F297">
         <v>4</v>
@@ -6837,19 +6842,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="B298">
-        <v>1099555980532</v>
+        <v>1099570839418</v>
       </c>
       <c r="C298" s="2">
-        <v>44798</v>
+        <v>44742</v>
       </c>
       <c r="D298" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E298">
-        <v>1521</v>
+        <v>513</v>
       </c>
       <c r="F298">
         <v>4</v>
@@ -6857,19 +6862,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B299">
-        <v>1099555980532</v>
+        <v>1099572058166</v>
       </c>
       <c r="C299" s="2">
-        <v>44749</v>
+        <v>44814</v>
       </c>
       <c r="D299" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E299">
-        <v>987</v>
+        <v>587.36</v>
       </c>
       <c r="F299">
         <v>4</v>
@@ -6877,19 +6882,19 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B300">
-        <v>1099555944907</v>
+        <v>1099557917630</v>
       </c>
       <c r="C300" s="2">
-        <v>44801</v>
+        <v>44831</v>
       </c>
       <c r="D300" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E300">
-        <v>429.8</v>
+        <v>268</v>
       </c>
       <c r="F300">
         <v>4</v>
@@ -6897,19 +6902,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B301">
-        <v>1099555938867</v>
+        <v>1099557825812</v>
       </c>
       <c r="C301" s="2">
-        <v>44769</v>
+        <v>44762</v>
       </c>
       <c r="D301" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E301">
-        <v>309.8</v>
+        <v>430</v>
       </c>
       <c r="F301">
         <v>4</v>
@@ -6917,19 +6922,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B302">
-        <v>1099555938447</v>
+        <v>1099557809802</v>
       </c>
       <c r="C302" s="2">
-        <v>44796</v>
+        <v>44806</v>
       </c>
       <c r="D302" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E302">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="F302">
         <v>4</v>
@@ -6937,19 +6942,19 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B303">
-        <v>1099555905448</v>
+        <v>1099557680664</v>
       </c>
       <c r="C303" s="2">
-        <v>44748</v>
+        <v>44723</v>
       </c>
       <c r="D303" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E303">
-        <v>638</v>
+        <v>282.6</v>
       </c>
       <c r="F303">
         <v>4</v>
@@ -6957,19 +6962,19 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B304">
-        <v>1099555772968</v>
+        <v>1099557397849</v>
       </c>
       <c r="C304" s="2">
-        <v>44890</v>
+        <v>44808</v>
       </c>
       <c r="D304" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E304">
-        <v>382</v>
+        <v>1214</v>
       </c>
       <c r="F304">
         <v>4</v>
@@ -6977,19 +6982,19 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B305">
-        <v>1099555769765</v>
+        <v>1099557338823</v>
       </c>
       <c r="C305" s="2">
-        <v>44740</v>
+        <v>44795</v>
       </c>
       <c r="D305" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E305">
-        <v>840</v>
+        <v>917</v>
       </c>
       <c r="F305">
         <v>4</v>
@@ -6997,19 +7002,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="B306">
-        <v>1099573991686</v>
+        <v>1099557311354</v>
       </c>
       <c r="C306" s="2">
-        <v>44808</v>
+        <v>44901</v>
       </c>
       <c r="D306" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E306">
-        <v>880.4</v>
+        <v>372</v>
       </c>
       <c r="F306">
         <v>4</v>
@@ -7017,19 +7022,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="B307">
-        <v>1099573991686</v>
+        <v>1099557211839</v>
       </c>
       <c r="C307" s="2">
-        <v>44809</v>
+        <v>44783</v>
       </c>
       <c r="D307" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="E307">
-        <v>765</v>
+        <v>991.1</v>
       </c>
       <c r="F307">
         <v>4</v>
@@ -7037,19 +7042,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="B308">
-        <v>1099574025924</v>
+        <v>1099557211839</v>
       </c>
       <c r="C308" s="2">
-        <v>44864</v>
+        <v>44776</v>
       </c>
       <c r="D308" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="E308">
-        <v>233</v>
+        <v>482.5</v>
       </c>
       <c r="F308">
         <v>4</v>
@@ -7057,19 +7062,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="B309">
-        <v>1099559662614</v>
+        <v>1099573991686</v>
       </c>
       <c r="C309" s="2">
-        <v>44861</v>
+        <v>44808</v>
       </c>
       <c r="D309" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E309">
-        <v>1292.7</v>
+        <v>880.4</v>
       </c>
       <c r="F309">
         <v>4</v>
@@ -7077,19 +7082,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="B310">
-        <v>1099562805625</v>
+        <v>1099573991686</v>
       </c>
       <c r="C310" s="2">
-        <v>44844</v>
+        <v>44809</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E310">
-        <v>1868.8</v>
+        <v>765</v>
       </c>
       <c r="F310">
         <v>4</v>
@@ -7097,19 +7102,19 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B311">
-        <v>1099573651090</v>
+        <v>1099574025924</v>
       </c>
       <c r="C311" s="2">
-        <v>44803</v>
+        <v>44864</v>
       </c>
       <c r="D311" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E311">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="F311">
         <v>4</v>
@@ -7117,19 +7122,19 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="B312">
-        <v>1099573566308</v>
+        <v>1099557211839</v>
       </c>
       <c r="C312" s="2">
-        <v>44755</v>
+        <v>44765</v>
       </c>
       <c r="D312" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="E312">
-        <v>640.4</v>
+        <v>1808</v>
       </c>
       <c r="F312">
         <v>4</v>
@@ -7137,19 +7142,19 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B313">
-        <v>1099559258552</v>
+        <v>1099564705705</v>
       </c>
       <c r="C313" s="2">
-        <v>44862</v>
+        <v>44733</v>
       </c>
       <c r="D313" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E313">
-        <v>520.20000000000005</v>
+        <v>356.5</v>
       </c>
       <c r="F313">
         <v>4</v>
@@ -7157,7 +7162,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B314">
         <v>1099557043720</v>
@@ -7177,19 +7182,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="B315">
-        <v>1099570222899</v>
+        <v>1099574108402</v>
       </c>
       <c r="C315" s="2">
-        <v>44752</v>
+        <v>44797</v>
       </c>
       <c r="D315" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="E315">
-        <v>401.1</v>
+        <v>526.9</v>
       </c>
       <c r="F315">
         <v>4</v>
@@ -7197,19 +7202,19 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="B316">
-        <v>1099570839418</v>
+        <v>1099556890691</v>
       </c>
       <c r="C316" s="2">
-        <v>44742</v>
+        <v>44899</v>
       </c>
       <c r="D316" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E316">
-        <v>513</v>
+        <v>257.8</v>
       </c>
       <c r="F316">
         <v>4</v>
@@ -7217,19 +7222,19 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B317">
-        <v>1099572058166</v>
+        <v>1099556890691</v>
       </c>
       <c r="C317" s="2">
-        <v>44814</v>
+        <v>44746</v>
       </c>
       <c r="D317" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E317">
-        <v>587.36</v>
+        <v>274</v>
       </c>
       <c r="F317">
         <v>4</v>
@@ -7237,19 +7242,19 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="B318">
-        <v>1099559258552</v>
+        <v>1099574296783</v>
       </c>
       <c r="C318" s="2">
-        <v>44787</v>
+        <v>44837</v>
       </c>
       <c r="D318" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E318">
-        <v>970.9</v>
+        <v>1439.6</v>
       </c>
       <c r="F318">
         <v>4</v>
@@ -7257,19 +7262,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B319">
-        <v>1099557211839</v>
+        <v>1099556729470</v>
       </c>
       <c r="C319" s="2">
-        <v>44765</v>
+        <v>44783</v>
       </c>
       <c r="D319" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E319">
-        <v>1808</v>
+        <v>585.8</v>
       </c>
       <c r="F319">
         <v>4</v>
@@ -7277,19 +7282,19 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="B320">
-        <v>1099572058166</v>
+        <v>1099574317947</v>
       </c>
       <c r="C320" s="2">
-        <v>44824</v>
+        <v>44778</v>
       </c>
       <c r="D320" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E320">
-        <v>1564.6</v>
+        <v>392.5</v>
       </c>
       <c r="F320">
         <v>4</v>
@@ -7297,19 +7302,19 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B321">
-        <v>1099564406955</v>
+        <v>1099558040057</v>
       </c>
       <c r="C321" s="2">
-        <v>44856</v>
+        <v>44895</v>
       </c>
       <c r="D321" t="s">
         <v>158</v>
       </c>
       <c r="E321">
-        <v>269</v>
+        <v>606</v>
       </c>
       <c r="F321">
         <v>4</v>
@@ -7317,10 +7322,10 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B322">
-        <v>1099572549775</v>
+        <v>1099558172264</v>
       </c>
       <c r="C322" s="2">
         <v>44823</v>
@@ -7329,7 +7334,7 @@
         <v>159</v>
       </c>
       <c r="E322">
-        <v>648</v>
+        <v>444</v>
       </c>
       <c r="F322">
         <v>4</v>
@@ -7337,19 +7342,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B323">
-        <v>1099563820543</v>
+        <v>1099558423741</v>
       </c>
       <c r="C323" s="2">
-        <v>44865</v>
+        <v>44847</v>
       </c>
       <c r="D323" t="s">
         <v>160</v>
       </c>
       <c r="E323">
-        <v>933.4</v>
+        <v>298</v>
       </c>
       <c r="F323">
         <v>4</v>
@@ -7357,19 +7362,19 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B324">
-        <v>1099556890691</v>
+        <v>1099559820938</v>
       </c>
       <c r="C324" s="2">
-        <v>44899</v>
+        <v>44867</v>
       </c>
       <c r="D324" t="s">
         <v>161</v>
       </c>
       <c r="E324">
-        <v>257.8</v>
+        <v>797</v>
       </c>
       <c r="F324">
         <v>4</v>
@@ -7377,19 +7382,19 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B325">
-        <v>1099556340695</v>
+        <v>1099560700049</v>
       </c>
       <c r="C325" s="2">
-        <v>44838</v>
+        <v>44731</v>
       </c>
       <c r="D325" t="s">
         <v>162</v>
       </c>
       <c r="E325">
-        <v>767</v>
+        <v>338</v>
       </c>
       <c r="F325">
         <v>4</v>
@@ -7397,19 +7402,19 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B326">
-        <v>1099556890691</v>
+        <v>1099560467745</v>
       </c>
       <c r="C326" s="2">
-        <v>44746</v>
+        <v>44740</v>
       </c>
       <c r="D326" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E326">
-        <v>274</v>
+        <v>315.9</v>
       </c>
       <c r="F326">
         <v>4</v>
@@ -7417,19 +7422,19 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="B327">
-        <v>1099559258552</v>
+        <v>1099572058166</v>
       </c>
       <c r="C327" s="2">
-        <v>44802</v>
+        <v>44824</v>
       </c>
       <c r="D327" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="E327">
-        <v>708.8</v>
+        <v>1564.6</v>
       </c>
       <c r="F327">
         <v>4</v>
@@ -7437,19 +7442,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="B328">
-        <v>1099556729470</v>
+        <v>1099572549775</v>
       </c>
       <c r="C328" s="2">
-        <v>44783</v>
+        <v>44823</v>
       </c>
       <c r="D328" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E328">
-        <v>585.79999999999995</v>
+        <v>648</v>
       </c>
       <c r="F328">
         <v>4</v>
@@ -7457,19 +7462,19 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B329">
-        <v>1099556729470</v>
+        <v>1099559989844</v>
       </c>
       <c r="C329" s="2">
-        <v>44757</v>
+        <v>44911</v>
       </c>
       <c r="D329" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="E329">
-        <v>741.01</v>
+        <v>455.5</v>
       </c>
       <c r="F329">
         <v>4</v>
@@ -7477,19 +7482,19 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B330">
-        <v>1099556693225</v>
+        <v>1099559989844</v>
       </c>
       <c r="C330" s="2">
-        <v>44874</v>
+        <v>44839</v>
       </c>
       <c r="D330" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="E330">
-        <v>3681</v>
+        <v>315.2</v>
       </c>
       <c r="F330">
         <v>4</v>
@@ -7497,19 +7502,19 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B331">
-        <v>1099556619338</v>
+        <v>1099559989844</v>
       </c>
       <c r="C331" s="2">
-        <v>44823</v>
+        <v>44820</v>
       </c>
       <c r="D331" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="E331">
-        <v>1360</v>
+        <v>3481.3</v>
       </c>
       <c r="F331">
         <v>4</v>
@@ -7517,19 +7522,19 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B332">
-        <v>1099556476908</v>
+        <v>1099559899256</v>
       </c>
       <c r="C332" s="2">
-        <v>44776</v>
+        <v>44930</v>
       </c>
       <c r="D332" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="E332">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F332">
         <v>4</v>
@@ -7537,19 +7542,19 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="B333">
-        <v>1099573452151</v>
+        <v>1099559899256</v>
       </c>
       <c r="C333" s="2">
-        <v>44883</v>
+        <v>44766</v>
       </c>
       <c r="D333" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="E333">
-        <v>294.7</v>
+        <v>561.8</v>
       </c>
       <c r="F333">
         <v>4</v>
@@ -7557,19 +7562,19 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="B334">
-        <v>1099573496963</v>
+        <v>1099559662614</v>
       </c>
       <c r="C334" s="2">
-        <v>44764</v>
+        <v>44861</v>
       </c>
       <c r="D334" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E334">
-        <v>537.29999999999995</v>
+        <v>1292.7</v>
       </c>
       <c r="F334">
         <v>4</v>
@@ -7577,21 +7582,221 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
+        <v>74</v>
+      </c>
+      <c r="B335">
+        <v>1099558451336</v>
+      </c>
+      <c r="C335" s="2">
+        <v>44801</v>
+      </c>
+      <c r="D335" t="s">
+        <v>166</v>
+      </c>
+      <c r="E335">
+        <v>329.6</v>
+      </c>
+      <c r="F335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1">
+        <v>207</v>
+      </c>
+      <c r="B336">
+        <v>1099573452151</v>
+      </c>
+      <c r="C336" s="2">
+        <v>44883</v>
+      </c>
+      <c r="D336" t="s">
+        <v>167</v>
+      </c>
+      <c r="E336">
+        <v>294.7</v>
+      </c>
+      <c r="F336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>208</v>
+      </c>
+      <c r="B337">
+        <v>1099573496963</v>
+      </c>
+      <c r="C337" s="2">
+        <v>44764</v>
+      </c>
+      <c r="D337" t="s">
+        <v>168</v>
+      </c>
+      <c r="E337">
+        <v>537.3</v>
+      </c>
+      <c r="F337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>80</v>
+      </c>
+      <c r="B338">
+        <v>1099559258552</v>
+      </c>
+      <c r="C338" s="2">
+        <v>44862</v>
+      </c>
+      <c r="D338" t="s">
+        <v>169</v>
+      </c>
+      <c r="E338">
+        <v>520.2</v>
+      </c>
+      <c r="F338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>211</v>
+      </c>
+      <c r="B339">
+        <v>1099573566308</v>
+      </c>
+      <c r="C339" s="2">
+        <v>44755</v>
+      </c>
+      <c r="D339" t="s">
+        <v>170</v>
+      </c>
+      <c r="E339">
+        <v>640.4</v>
+      </c>
+      <c r="F339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>212</v>
+      </c>
+      <c r="B340">
+        <v>1099573651090</v>
+      </c>
+      <c r="C340" s="2">
+        <v>44803</v>
+      </c>
+      <c r="D340" t="s">
+        <v>171</v>
+      </c>
+      <c r="E340">
+        <v>313</v>
+      </c>
+      <c r="F340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>79</v>
+      </c>
+      <c r="B341">
+        <v>1099559258552</v>
+      </c>
+      <c r="C341" s="2">
+        <v>44802</v>
+      </c>
+      <c r="D341" t="s">
+        <v>169</v>
+      </c>
+      <c r="E341">
+        <v>708.8</v>
+      </c>
+      <c r="F341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>78</v>
+      </c>
+      <c r="B342">
+        <v>1099559258552</v>
+      </c>
+      <c r="C342" s="2">
+        <v>44787</v>
+      </c>
+      <c r="D342" t="s">
+        <v>169</v>
+      </c>
+      <c r="E342">
+        <v>970.9</v>
+      </c>
+      <c r="F342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>77</v>
+      </c>
+      <c r="B343">
+        <v>1099559258552</v>
+      </c>
+      <c r="C343" s="2">
+        <v>44758</v>
+      </c>
+      <c r="D343" t="s">
+        <v>169</v>
+      </c>
+      <c r="E343">
+        <v>1087</v>
+      </c>
+      <c r="F343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>75</v>
+      </c>
+      <c r="B344">
+        <v>1099558862851</v>
+      </c>
+      <c r="C344" s="2">
+        <v>44857</v>
+      </c>
+      <c r="D344" t="s">
+        <v>172</v>
+      </c>
+      <c r="E344">
+        <v>441</v>
+      </c>
+      <c r="F344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
         <v>0</v>
       </c>
-      <c r="B335">
+      <c r="B345">
         <v>1099551461830</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C345" s="2">
         <v>44867</v>
       </c>
-      <c r="D335" t="s">
-        <v>169</v>
-      </c>
-      <c r="E335">
+      <c r="D345" t="s">
+        <v>173</v>
+      </c>
+      <c r="E345">
         <v>316</v>
       </c>
-      <c r="F335">
+      <c r="F345">
         <v>4</v>
       </c>
     </row>
